--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="396">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1161,6 +1161,45 @@
   </si>
   <si>
     <t>0 hours, 24 minutes</t>
+  </si>
+  <si>
+    <t>8:30 PM</t>
+  </si>
+  <si>
+    <t>FT1518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlyEgypt </t>
+  </si>
+  <si>
+    <t>(SU-TMN)</t>
+  </si>
+  <si>
+    <t>8:15 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -15 minutes</t>
+  </si>
+  <si>
+    <t>10:05 PM</t>
+  </si>
+  <si>
+    <t>FR6868</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>(CGN)</t>
+  </si>
+  <si>
+    <t>(9H-QBA)</t>
+  </si>
+  <si>
+    <t>10:20 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 15 minutes</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3945,6 +3984,80 @@
       </c>
       <c r="M74" s="0"/>
     </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="K75" s="0"/>
+      <c r="L75" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="K76" s="0"/>
+      <c r="L76" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M76" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="446">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1200,6 +1200,156 @@
   </si>
   <si>
     <t>0 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>5:35 AM</t>
+  </si>
+  <si>
+    <t>5:40 AM</t>
+  </si>
+  <si>
+    <t>LO3880</t>
+  </si>
+  <si>
+    <t>E170</t>
+  </si>
+  <si>
+    <t>(SP-LDI)</t>
+  </si>
+  <si>
+    <t>5:49 AM</t>
+  </si>
+  <si>
+    <t>6:11 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>6:20 AM</t>
+  </si>
+  <si>
+    <t>W61043</t>
+  </si>
+  <si>
+    <t>6:27 AM</t>
+  </si>
+  <si>
+    <t>6:30 AM</t>
+  </si>
+  <si>
+    <t>6:48 AM</t>
+  </si>
+  <si>
+    <t>W61163</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>(MLA)</t>
+  </si>
+  <si>
+    <t>(HA-LXE)</t>
+  </si>
+  <si>
+    <t>6:51 AM</t>
+  </si>
+  <si>
+    <t>7:09 AM</t>
+  </si>
+  <si>
+    <t>7:28 AM</t>
+  </si>
+  <si>
+    <t>7:35 AM</t>
+  </si>
+  <si>
+    <t>7:36 AM</t>
+  </si>
+  <si>
+    <t>3Z7312</t>
+  </si>
+  <si>
+    <t>8:47 AM</t>
+  </si>
+  <si>
+    <t>9:44 AM</t>
+  </si>
+  <si>
+    <t>(SP-ENL)</t>
+  </si>
+  <si>
+    <t>(SP-LIA)</t>
+  </si>
+  <si>
+    <t>0 hours, 6 minutes</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>W61011</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>(LPL)</t>
+  </si>
+  <si>
+    <t>11:57 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>12:11 PM</t>
+  </si>
+  <si>
+    <t>12:40 PM</t>
+  </si>
+  <si>
+    <t>LH9968</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>(MUC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Dolomiti </t>
+  </si>
+  <si>
+    <t>E195</t>
+  </si>
+  <si>
+    <t>(I-ADJL)</t>
+  </si>
+  <si>
+    <t>1:09 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 29 minutes</t>
+  </si>
+  <si>
+    <t>12:45 PM</t>
+  </si>
+  <si>
+    <t>W61275</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>(AUH)</t>
+  </si>
+  <si>
+    <t>12:48 PM</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4058,6 +4208,672 @@
       </c>
       <c r="M76" s="0"/>
     </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="K77" s="0"/>
+      <c r="L77" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M77" s="0"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="K78" s="0"/>
+      <c r="L78" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="K79" s="0"/>
+      <c r="L79" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="K80" s="0"/>
+      <c r="L80" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="K81" s="0"/>
+      <c r="L81" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M81" s="0"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="K82" s="0"/>
+      <c r="L82" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K83" s="0"/>
+      <c r="L83" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M83" s="0"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="K84" s="0"/>
+      <c r="L84" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M84" s="0"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="K85" s="0"/>
+      <c r="L85" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M85" s="0"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="K86" s="0"/>
+      <c r="L86" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="K87" s="0"/>
+      <c r="L87" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M87" s="0"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="K88" s="0"/>
+      <c r="L88" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="K89" s="0"/>
+      <c r="L89" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M89" s="0"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K90" s="0"/>
+      <c r="L90" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M90" s="0"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="K91" s="0"/>
+      <c r="L91" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M91" s="0"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="K92" s="0"/>
+      <c r="L92" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="K93" s="0"/>
+      <c r="L93" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M93" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="K94" s="0"/>
+      <c r="L94" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M94" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="467">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1350,6 +1350,69 @@
   </si>
   <si>
     <t>12:48 PM</t>
+  </si>
+  <si>
+    <t>2:43 PM</t>
+  </si>
+  <si>
+    <t>3:10 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Sliwka Naleczowska Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNC)</t>
+  </si>
+  <si>
+    <t>0 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>3:25 PM</t>
+  </si>
+  <si>
+    <t>W61283</t>
+  </si>
+  <si>
+    <t>Tel Aviv</t>
+  </si>
+  <si>
+    <t>(TLV)</t>
+  </si>
+  <si>
+    <t>3:35 PM</t>
+  </si>
+  <si>
+    <t>LO6317</t>
+  </si>
+  <si>
+    <t>Punta Cana</t>
+  </si>
+  <si>
+    <t>(PUJ)</t>
+  </si>
+  <si>
+    <t>3:41 PM</t>
+  </si>
+  <si>
+    <t>4:20 PM</t>
+  </si>
+  <si>
+    <t>W61167</t>
+  </si>
+  <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
+    <t>(SVG)</t>
+  </si>
+  <si>
+    <t>4:31 PM</t>
+  </si>
+  <si>
+    <t>(PH-NXF)</t>
+  </si>
+  <si>
+    <t>4:56 PM</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4874,6 +4937,228 @@
       </c>
       <c r="M94" s="0"/>
     </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K95" s="0"/>
+      <c r="L95" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M95" s="0"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="K96" s="0"/>
+      <c r="L96" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="M96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="K97" s="0"/>
+      <c r="L97" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M97" s="0"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="K98" s="0"/>
+      <c r="L98" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="K99" s="0"/>
+      <c r="L99" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M99" s="0"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="K100" s="0"/>
+      <c r="L100" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M100" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="491">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1413,6 +1413,78 @@
   </si>
   <si>
     <t>4:56 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>W61045</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>(FCO)</t>
+  </si>
+  <si>
+    <t>7:11 PM</t>
+  </si>
+  <si>
+    <t>9:35 PM</t>
+  </si>
+  <si>
+    <t>SAR1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SprintAir </t>
+  </si>
+  <si>
+    <t>AT75</t>
+  </si>
+  <si>
+    <t>(SP-SPF)</t>
+  </si>
+  <si>
+    <t>0 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>9:52 PM</t>
+  </si>
+  <si>
+    <t>3V4563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FedEx </t>
+  </si>
+  <si>
+    <t>(OE-IWF)</t>
+  </si>
+  <si>
+    <t>9:53 PM</t>
+  </si>
+  <si>
+    <t>QY5917</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>(LEJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL (Delivered with Pride Livery) </t>
+  </si>
+  <si>
+    <t>B752</t>
+  </si>
+  <si>
+    <t>(OE-LNB)</t>
+  </si>
+  <si>
+    <t>10:35 PM</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5159,6 +5231,228 @@
       </c>
       <c r="M100" s="0"/>
     </row>
+    <row r="101">
+      <c r="A101" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="K101" s="0"/>
+      <c r="L101" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M101" s="0"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="K102" s="0"/>
+      <c r="L102" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="K103" s="0"/>
+      <c r="L103" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M103" s="0"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="K104" s="0"/>
+      <c r="L104" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="K105" s="0"/>
+      <c r="L105" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K106" s="0"/>
+      <c r="L106" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M106" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="550">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1485,6 +1485,183 @@
   </si>
   <si>
     <t>10:35 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>4:00 AM</t>
+  </si>
+  <si>
+    <t>QY5919</t>
+  </si>
+  <si>
+    <t>(D-ALEV)</t>
+  </si>
+  <si>
+    <t>3:40 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -20 minutes</t>
+  </si>
+  <si>
+    <t>(TF-BBO)</t>
+  </si>
+  <si>
+    <t>5:12 AM</t>
+  </si>
+  <si>
+    <t>6:19 AM</t>
+  </si>
+  <si>
+    <t>W61015</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>(LBA)</t>
+  </si>
+  <si>
+    <t>(D-ACNE)</t>
+  </si>
+  <si>
+    <t>6:47 AM</t>
+  </si>
+  <si>
+    <t>E44091</t>
+  </si>
+  <si>
+    <t>(SP-ENX)</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>(LPA)</t>
+  </si>
+  <si>
+    <t>7:43 AM</t>
+  </si>
+  <si>
+    <t>7:50 AM</t>
+  </si>
+  <si>
+    <t>7:53 AM</t>
+  </si>
+  <si>
+    <t>8:05 AM</t>
+  </si>
+  <si>
+    <t>(SP-ESB)</t>
+  </si>
+  <si>
+    <t>7:56 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -9 minutes</t>
+  </si>
+  <si>
+    <t>8:31 AM</t>
+  </si>
+  <si>
+    <t>9:26 AM</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>(BUD)</t>
+  </si>
+  <si>
+    <t>(HA-LPO)</t>
+  </si>
+  <si>
+    <t>11:14 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 44 minutes</t>
+  </si>
+  <si>
+    <t>11:15 AM</t>
+  </si>
+  <si>
+    <t>(EI-HGY)</t>
+  </si>
+  <si>
+    <t>11:55 AM</t>
+  </si>
+  <si>
+    <t>12:06 PM</t>
+  </si>
+  <si>
+    <t>12:51 PM</t>
+  </si>
+  <si>
+    <t>1:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACNT)</t>
+  </si>
+  <si>
+    <t>2:34 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Grzeski Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNB)</t>
+  </si>
+  <si>
+    <t>3:06 PM</t>
+  </si>
+  <si>
+    <t>3:55 PM</t>
+  </si>
+  <si>
+    <t>3:58 PM</t>
+  </si>
+  <si>
+    <t>4:45 PM</t>
+  </si>
+  <si>
+    <t>4:52 PM</t>
+  </si>
+  <si>
+    <t>4:59 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMG)</t>
+  </si>
+  <si>
+    <t>6:16 PM</t>
+  </si>
+  <si>
+    <t>6:35 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBP)</t>
+  </si>
+  <si>
+    <t>6:43 PM</t>
+  </si>
+  <si>
+    <t>9:42 PM</t>
+  </si>
+  <si>
+    <t>9:57 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASL Airlines </t>
+  </si>
+  <si>
+    <t>(EI-STU)</t>
+  </si>
+  <si>
+    <t>10:26 PM</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5453,6 +5630,1116 @@
       </c>
       <c r="M106" s="0"/>
     </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I107" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J107" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="K107" s="0"/>
+      <c r="L107" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="M107" s="0"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I108" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J108" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="K108" s="0"/>
+      <c r="L108" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J109" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="K109" s="0"/>
+      <c r="L109" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M109" s="0"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J110" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="K110" s="0"/>
+      <c r="L110" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I111" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J111" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="K111" s="0"/>
+      <c r="L111" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M111" s="0"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="J112" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="K112" s="0"/>
+      <c r="L112" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I113" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J113" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K113" s="0"/>
+      <c r="L113" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M113" s="0"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I114" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="J114" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="K114" s="0"/>
+      <c r="L114" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I115" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J115" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="K115" s="0"/>
+      <c r="L115" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M115" s="0"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I116" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J116" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K116" s="0"/>
+      <c r="L116" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I117" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="J117" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="K117" s="0"/>
+      <c r="L117" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M117" s="0"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I118" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="J118" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="K118" s="0"/>
+      <c r="L118" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M118" s="0"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I119" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J119" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="K119" s="0"/>
+      <c r="L119" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M119" s="0"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I120" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="J120" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="K120" s="0"/>
+      <c r="L120" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M120" s="0"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I121" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J121" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="K121" s="0"/>
+      <c r="L121" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M121" s="0"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I122" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="J122" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="K122" s="0"/>
+      <c r="L122" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M122" s="0"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I123" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J123" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="K123" s="0"/>
+      <c r="L123" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M123" s="0"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I124" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J124" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K124" s="0"/>
+      <c r="L124" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M124" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J125" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K125" s="0"/>
+      <c r="L125" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M125" s="0"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I126" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J126" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="K126" s="0"/>
+      <c r="L126" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M126" s="0"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="K127" s="0"/>
+      <c r="L127" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M127" s="0"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="K128" s="0"/>
+      <c r="L128" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M128" s="0"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I129" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="K129" s="0"/>
+      <c r="L129" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M129" s="0"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I130" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="K130" s="0"/>
+      <c r="L130" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M130" s="0"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I131" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="K131" s="0"/>
+      <c r="L131" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M131" s="0"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H132" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I132" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="K132" s="0"/>
+      <c r="L132" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M132" s="0"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H133" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I133" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="K133" s="0"/>
+      <c r="L133" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M133" s="0"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H134" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I134" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="K134" s="0"/>
+      <c r="L134" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M134" s="0"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H135" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I135" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="J135" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="K135" s="0"/>
+      <c r="L135" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M135" s="0"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H136" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="K136" s="0"/>
+      <c r="L136" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M136" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="617">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1662,6 +1662,207 @@
   </si>
   <si>
     <t>10:26 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL </t>
+  </si>
+  <si>
+    <t>(D-ALEO)</t>
+  </si>
+  <si>
+    <t>3:48 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -12 minutes</t>
+  </si>
+  <si>
+    <t>5:50 AM</t>
+  </si>
+  <si>
+    <t>LO6211</t>
+  </si>
+  <si>
+    <t>Taba</t>
+  </si>
+  <si>
+    <t>(TCP)</t>
+  </si>
+  <si>
+    <t>(SP-LWG)</t>
+  </si>
+  <si>
+    <t>5:56 AM</t>
+  </si>
+  <si>
+    <t>6:23 AM</t>
+  </si>
+  <si>
+    <t>6:35 AM</t>
+  </si>
+  <si>
+    <t>6:44 AM</t>
+  </si>
+  <si>
+    <t>(SP-RKB)</t>
+  </si>
+  <si>
+    <t>0 hours, 43 minutes</t>
+  </si>
+  <si>
+    <t>7:10 AM</t>
+  </si>
+  <si>
+    <t>7:20 AM</t>
+  </si>
+  <si>
+    <t>7:34 AM</t>
+  </si>
+  <si>
+    <t>9:05 AM</t>
+  </si>
+  <si>
+    <t>LO6501</t>
+  </si>
+  <si>
+    <t>Varadero</t>
+  </si>
+  <si>
+    <t>(VRA)</t>
+  </si>
+  <si>
+    <t>10:38 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>Kaunas</t>
+  </si>
+  <si>
+    <t>(KUN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMC Aviation </t>
+  </si>
+  <si>
+    <t>G280</t>
+  </si>
+  <si>
+    <t>(SP-NVM)</t>
+  </si>
+  <si>
+    <t>9:54 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -6 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EKY)</t>
+  </si>
+  <si>
+    <t>(EI-EVB)</t>
+  </si>
+  <si>
+    <t>11:02 AM</t>
+  </si>
+  <si>
+    <t>11:23 AM</t>
+  </si>
+  <si>
+    <t>11:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LDK)</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>12:55 PM</t>
+  </si>
+  <si>
+    <t>1:42 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNW)</t>
+  </si>
+  <si>
+    <t>2:13 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -2 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LID)</t>
+  </si>
+  <si>
+    <t>3:11 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetJets Europe </t>
+  </si>
+  <si>
+    <t>E55P</t>
+  </si>
+  <si>
+    <t>(CS-PHQ)</t>
+  </si>
+  <si>
+    <t>5:11 PM</t>
+  </si>
+  <si>
+    <t>6:02 PM</t>
+  </si>
+  <si>
+    <t>6:25 PM</t>
+  </si>
+  <si>
+    <t>6:40 PM</t>
+  </si>
+  <si>
+    <t>6:49 PM</t>
+  </si>
+  <si>
+    <t>7:06 PM</t>
+  </si>
+  <si>
+    <t>9:45 PM</t>
+  </si>
+  <si>
+    <t>P81981</t>
+  </si>
+  <si>
+    <t>9:55 PM</t>
+  </si>
+  <si>
+    <t>10:31 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>12:15 AM</t>
+  </si>
+  <si>
+    <t>EAF142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electra Airways </t>
+  </si>
+  <si>
+    <t>(LZ-EAD)</t>
+  </si>
+  <si>
+    <t>12:28 AM</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6740,6 +6941,1190 @@
       </c>
       <c r="M136" s="0"/>
     </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H137" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I137" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="J137" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="K137" s="0"/>
+      <c r="L137" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="M137" s="0"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H138" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I138" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J138" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="K138" s="0"/>
+      <c r="L138" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="M138" s="0"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H139" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I139" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="J139" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="K139" s="0"/>
+      <c r="L139" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M139" s="0"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J140" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K140" s="0"/>
+      <c r="L140" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M140" s="0"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="K141" s="0"/>
+      <c r="L141" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M141" s="0"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I142" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J142" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="K142" s="0"/>
+      <c r="L142" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M142" s="0"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I143" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J143" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K143" s="0"/>
+      <c r="L143" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M143" s="0"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G144" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H144" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I144" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J144" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="K144" s="0"/>
+      <c r="L144" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="M144" s="0"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I145" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J145" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="K145" s="0"/>
+      <c r="L145" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M145" s="0"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I146" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J146" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="K146" s="0"/>
+      <c r="L146" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M146" s="0"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H147" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I147" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J147" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M147" s="0"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G148" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I148" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J148" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="M148" s="0"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="H149" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="I149" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="J149" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="K149" s="0"/>
+      <c r="L149" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M149" s="0"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H150" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I150" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="J150" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="K150" s="0"/>
+      <c r="L150" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M150" s="0"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H151" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I151" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="J151" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="K151" s="0"/>
+      <c r="L151" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M151" s="0"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H152" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I152" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J152" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="K152" s="0"/>
+      <c r="L152" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M152" s="0"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="H153" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I153" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="J153" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="K153" s="0"/>
+      <c r="L153" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M153" s="0"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H154" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I154" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J154" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="K154" s="0"/>
+      <c r="L154" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M154" s="0"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J155" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K155" s="0"/>
+      <c r="L155" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M155" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I156" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J156" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="K156" s="0"/>
+      <c r="L156" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M156" s="0"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H157" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I157" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="J157" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="K157" s="0"/>
+      <c r="L157" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="M157" s="0"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H158" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I158" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="J158" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="K158" s="0"/>
+      <c r="L158" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M158" s="0"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="H159" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="I159" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="J159" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="K159" s="0"/>
+      <c r="L159" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M159" s="0"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H160" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I160" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J160" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="K160" s="0"/>
+      <c r="L160" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M160" s="0"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I161" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J161" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="K161" s="0"/>
+      <c r="L161" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M161" s="0"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H162" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I162" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J162" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="K162" s="0"/>
+      <c r="L162" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M162" s="0"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I163" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J163" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="K163" s="0"/>
+      <c r="L163" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M163" s="0"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H164" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I164" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="J164" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="K164" s="0"/>
+      <c r="L164" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M164" s="0"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H165" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I165" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J165" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="K165" s="0"/>
+      <c r="L165" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M165" s="0"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H166" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I166" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="J166" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="K166" s="0"/>
+      <c r="L166" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M166" s="0"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F167" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G167" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H167" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I167" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J167" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="K167" s="0"/>
+      <c r="L167" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M167" s="0"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F168" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G168" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="H168" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I168" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="J168" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="K168" s="0"/>
+      <c r="L168" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M168" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="676">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1863,6 +1863,183 @@
   </si>
   <si>
     <t>12:28 AM</t>
+  </si>
+  <si>
+    <t>3:30 AM</t>
+  </si>
+  <si>
+    <t>E44035</t>
+  </si>
+  <si>
+    <t>3:44 AM</t>
+  </si>
+  <si>
+    <t>(D-ALEQ)</t>
+  </si>
+  <si>
+    <t>4:02 AM</t>
+  </si>
+  <si>
+    <t>4:30 AM</t>
+  </si>
+  <si>
+    <t>(OK-SWC)</t>
+  </si>
+  <si>
+    <t>4:38 AM</t>
+  </si>
+  <si>
+    <t>5:54 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYN)</t>
+  </si>
+  <si>
+    <t>6:49 AM</t>
+  </si>
+  <si>
+    <t>7:07 AM</t>
+  </si>
+  <si>
+    <t>7:57 AM</t>
+  </si>
+  <si>
+    <t>8:25 AM</t>
+  </si>
+  <si>
+    <t>E47817</t>
+  </si>
+  <si>
+    <t>8:40 AM</t>
+  </si>
+  <si>
+    <t>(9H-QEM)</t>
+  </si>
+  <si>
+    <t>8:48 AM</t>
+  </si>
+  <si>
+    <t>9:31 AM</t>
+  </si>
+  <si>
+    <t>11:10 AM</t>
+  </si>
+  <si>
+    <t>11:11 AM</t>
+  </si>
+  <si>
+    <t>LO6545</t>
+  </si>
+  <si>
+    <t>Puerto Plata</t>
+  </si>
+  <si>
+    <t>(POP)</t>
+  </si>
+  <si>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>BJ7667</t>
+  </si>
+  <si>
+    <t>Djerba</t>
+  </si>
+  <si>
+    <t>(DJE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelair </t>
+  </si>
+  <si>
+    <t>(TS-INR)</t>
+  </si>
+  <si>
+    <t>12:19 PM</t>
+  </si>
+  <si>
+    <t>12:25 PM</t>
+  </si>
+  <si>
+    <t>CAT5734</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>(BER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen Airtaxi </t>
+  </si>
+  <si>
+    <t>CRJ2</t>
+  </si>
+  <si>
+    <t>(OY-CRJ)</t>
+  </si>
+  <si>
+    <t>(SP-RSB)</t>
+  </si>
+  <si>
+    <t>1:07 PM</t>
+  </si>
+  <si>
+    <t>1:13 PM</t>
+  </si>
+  <si>
+    <t>2:37 PM</t>
+  </si>
+  <si>
+    <t>3:04 PM</t>
+  </si>
+  <si>
+    <t>3Z7386</t>
+  </si>
+  <si>
+    <t>(SP-LDF)</t>
+  </si>
+  <si>
+    <t>3:14 PM</t>
+  </si>
+  <si>
+    <t>FT1516</t>
+  </si>
+  <si>
+    <t>(SU-TMP)</t>
+  </si>
+  <si>
+    <t>5:14 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 53 minutes</t>
+  </si>
+  <si>
+    <t>5:05 PM</t>
+  </si>
+  <si>
+    <t>5:07 PM</t>
+  </si>
+  <si>
+    <t>6:15 PM</t>
+  </si>
+  <si>
+    <t>(SP-LDG)</t>
+  </si>
+  <si>
+    <t>6:17 PM</t>
+  </si>
+  <si>
+    <t>6:30 PM</t>
+  </si>
+  <si>
+    <t>6:47 PM</t>
+  </si>
+  <si>
+    <t>7:14 PM</t>
+  </si>
+  <si>
+    <t>7:02 PM</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8125,6 +8302,1227 @@
       </c>
       <c r="M168" s="0"/>
     </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F169" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G169" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H169" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I169" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J169" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="K169" s="0"/>
+      <c r="L169" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M169" s="0"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F170" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G170" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H170" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I170" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="J170" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="K170" s="0"/>
+      <c r="L170" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M170" s="0"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F171" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G171" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H171" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I171" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J171" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="K171" s="0"/>
+      <c r="L171" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M171" s="0"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F172" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G172" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H172" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I172" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J172" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="K172" s="0"/>
+      <c r="L172" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M172" s="0"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F173" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G173" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H173" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I173" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="J173" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="K173" s="0"/>
+      <c r="L173" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M173" s="0"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F174" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G174" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I174" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J174" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="K174" s="0"/>
+      <c r="L174" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M174" s="0"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F175" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G175" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I175" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J175" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K175" s="0"/>
+      <c r="L175" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M175" s="0"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F176" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G176" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H176" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I176" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="J176" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="K176" s="0"/>
+      <c r="L176" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M176" s="0"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F177" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G177" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H177" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I177" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J177" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="K177" s="0"/>
+      <c r="L177" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M177" s="0"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F178" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G178" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I178" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J178" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="K178" s="0"/>
+      <c r="L178" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M178" s="0"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F179" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G179" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H179" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I179" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J179" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="K179" s="0"/>
+      <c r="L179" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M179" s="0"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F180" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G180" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H180" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I180" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="J180" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K180" s="0"/>
+      <c r="L180" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M180" s="0"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G181" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H181" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I181" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="J181" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="K181" s="0"/>
+      <c r="L181" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M181" s="0"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G182" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I182" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J182" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="K182" s="0"/>
+      <c r="L182" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M182" s="0"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G183" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I183" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J183" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="K183" s="0"/>
+      <c r="L183" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M183" s="0"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="G184" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H184" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I184" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J184" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="K184" s="0"/>
+      <c r="L184" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M184" s="0"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="F185" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="G185" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="H185" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I185" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="J185" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="K185" s="0"/>
+      <c r="L185" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M185" s="0"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="F186" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="G186" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H186" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I186" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J186" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="K186" s="0"/>
+      <c r="L186" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M186" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="F187" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="G187" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="H187" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="I187" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="J187" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="K187" s="0"/>
+      <c r="L187" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M187" s="0"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="F188" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G188" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H188" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I188" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J188" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="K188" s="0"/>
+      <c r="L188" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M188" s="0"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F189" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G189" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I189" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J189" t="s" s="0">
+        <v>656</v>
+      </c>
+      <c r="K189" s="0"/>
+      <c r="L189" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M189" s="0"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G190" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I190" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J190" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="K190" s="0"/>
+      <c r="L190" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M190" s="0"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F191" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H191" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I191" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J191" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="K191" s="0"/>
+      <c r="L191" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M191" s="0"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E192" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F192" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G192" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I192" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J192" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="K192" s="0"/>
+      <c r="L192" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M192" s="0"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="E193" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F193" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G193" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H193" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I193" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J193" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="K193" s="0"/>
+      <c r="L193" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M193" s="0"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E194" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F194" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G194" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H194" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I194" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="J194" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="K194" s="0"/>
+      <c r="L194" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M194" s="0"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F195" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G195" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="H195" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I195" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="J195" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="K195" s="0"/>
+      <c r="L195" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M195" s="0"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E196" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F196" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G196" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H196" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I196" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J196" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="K196" s="0"/>
+      <c r="L196" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="M196" s="0"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="E197" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F197" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G197" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H197" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I197" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J197" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="K197" s="0"/>
+      <c r="L197" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M197" s="0"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F198" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G198" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H198" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I198" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J198" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="K198" s="0"/>
+      <c r="L198" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M198" s="0"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F199" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G199" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I199" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J199" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="K199" s="0"/>
+      <c r="L199" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M199" s="0"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F200" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G200" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H200" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I200" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J200" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="K200" s="0"/>
+      <c r="L200" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M200" s="0"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F201" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G201" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I201" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J201" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="K201" s="0"/>
+      <c r="L201" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M201" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="680">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2040,6 +2040,18 @@
   </si>
   <si>
     <t>7:02 PM</t>
+  </si>
+  <si>
+    <t>(EI-IFR)</t>
+  </si>
+  <si>
+    <t>9:50 PM</t>
+  </si>
+  <si>
+    <t>9:46 PM</t>
+  </si>
+  <si>
+    <t>10:25 PM</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9523,6 +9535,154 @@
       </c>
       <c r="M201" s="0"/>
     </row>
+    <row r="202">
+      <c r="A202" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F202" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G202" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H202" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I202" t="s" s="0">
+        <v>676</v>
+      </c>
+      <c r="J202" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="K202" s="0"/>
+      <c r="L202" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M202" s="0"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F203" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G203" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H203" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I203" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J203" t="s" s="0">
+        <v>678</v>
+      </c>
+      <c r="K203" s="0"/>
+      <c r="L203" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M203" s="0"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F204" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G204" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H204" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I204" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="J204" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="K204" s="0"/>
+      <c r="L204" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M204" s="0"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F205" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G205" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H205" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I205" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J205" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="K205" s="0"/>
+      <c r="L205" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M205" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="713">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2052,6 +2052,105 @@
   </si>
   <si>
     <t>10:25 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>CGF5919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Air </t>
+  </si>
+  <si>
+    <t>B733</t>
+  </si>
+  <si>
+    <t>(LZ-CGP)</t>
+  </si>
+  <si>
+    <t>3:45 AM</t>
+  </si>
+  <si>
+    <t>(SP-LIK)</t>
+  </si>
+  <si>
+    <t>5:47 AM</t>
+  </si>
+  <si>
+    <t>6:21 AM</t>
+  </si>
+  <si>
+    <t>6:29 AM</t>
+  </si>
+  <si>
+    <t>6:41 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 21 minutes</t>
+  </si>
+  <si>
+    <t>6:37 AM</t>
+  </si>
+  <si>
+    <t>3Z7606</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>(SLL)</t>
+  </si>
+  <si>
+    <t>6:52 AM</t>
+  </si>
+  <si>
+    <t>(D-ACNK)</t>
+  </si>
+  <si>
+    <t>7:17 AM</t>
+  </si>
+  <si>
+    <t>3Z7632</t>
+  </si>
+  <si>
+    <t>(HA-LKG)</t>
+  </si>
+  <si>
+    <t>8:37 AM</t>
+  </si>
+  <si>
+    <t>9:55 AM</t>
+  </si>
+  <si>
+    <t>E47011</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>(DWC)</t>
+  </si>
+  <si>
+    <t>(SP-ENW)</t>
+  </si>
+  <si>
+    <t>10:09 AM</t>
+  </si>
+  <si>
+    <t>RR7989</t>
+  </si>
+  <si>
+    <t>11:04 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 39 minutes</t>
+  </si>
+  <si>
+    <t>11:48 AM</t>
+  </si>
+  <si>
+    <t>(D-ACKI)</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9683,6 +9782,746 @@
       </c>
       <c r="M205" s="0"/>
     </row>
+    <row r="206">
+      <c r="A206" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F206" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G206" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="H206" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="I206" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="J206" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="K206" s="0"/>
+      <c r="L206" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M206" s="0"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F207" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G207" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I207" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J207" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="K207" s="0"/>
+      <c r="L207" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M207" s="0"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F208" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G208" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H208" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I208" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="J208" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="K208" s="0"/>
+      <c r="L208" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M208" s="0"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F209" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G209" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I209" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J209" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="K209" s="0"/>
+      <c r="L209" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M209" s="0"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F210" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G210" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H210" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I210" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J210" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="K210" s="0"/>
+      <c r="L210" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M210" s="0"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F211" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G211" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I211" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J211" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K211" s="0"/>
+      <c r="L211" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M211" s="0"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F212" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G212" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I212" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J212" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="K212" s="0"/>
+      <c r="L212" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M212" s="0"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="F213" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="G213" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H213" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I213" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J213" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="K213" s="0"/>
+      <c r="L213" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M213" s="0"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E214" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F214" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G214" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I214" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J214" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="K214" s="0"/>
+      <c r="L214" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M214" s="0"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="0">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E215" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F215" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H215" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I215" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="J215" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K215" s="0"/>
+      <c r="L215" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="M215" s="0"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F216" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G216" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I216" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J216" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="K216" s="0"/>
+      <c r="L216" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M216" s="0"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="E217" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F217" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G217" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H217" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I217" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J217" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="K217" s="0"/>
+      <c r="L217" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M217" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E218" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F218" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G218" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H218" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I218" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J218" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="K218" s="0"/>
+      <c r="L218" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M218" s="0"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="0">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="E219" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="F219" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="G219" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H219" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I219" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="J219" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="K219" s="0"/>
+      <c r="L219" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M219" s="0"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="E220" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="F220" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="G220" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H220" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I220" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J220" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="K220" s="0"/>
+      <c r="L220" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M220" s="0"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E221" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F221" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G221" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H221" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I221" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J221" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="K221" s="0"/>
+      <c r="L221" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="M221" s="0"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E222" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F222" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G222" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H222" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I222" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="J222" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="K222" s="0"/>
+      <c r="L222" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M222" s="0"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E223" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F223" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G223" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H223" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I223" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J223" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K223" s="0"/>
+      <c r="L223" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M223" s="0"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E224" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F224" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G224" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I224" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J224" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="K224" s="0"/>
+      <c r="L224" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M224" s="0"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E225" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F225" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G225" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H225" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I225" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="J225" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="K225" s="0"/>
+      <c r="L225" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M225" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="748">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2151,6 +2151,111 @@
   </si>
   <si>
     <t>(D-ACKI)</t>
+  </si>
+  <si>
+    <t>2:25 PM</t>
+  </si>
+  <si>
+    <t>2:30 PM</t>
+  </si>
+  <si>
+    <t>(I-ADJT)</t>
+  </si>
+  <si>
+    <t>4:19 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>3:09 PM</t>
+  </si>
+  <si>
+    <t>(SP-LDH)</t>
+  </si>
+  <si>
+    <t>3:20 PM</t>
+  </si>
+  <si>
+    <t>LO6515</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>(BKK)</t>
+  </si>
+  <si>
+    <t>3:49 PM</t>
+  </si>
+  <si>
+    <t>4:05 PM</t>
+  </si>
+  <si>
+    <t>4:32 PM</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>(KEF)</t>
+  </si>
+  <si>
+    <t>(HA-LVT)</t>
+  </si>
+  <si>
+    <t>4:37 PM</t>
+  </si>
+  <si>
+    <t>4:48 PM</t>
+  </si>
+  <si>
+    <t>(PH-NXB)</t>
+  </si>
+  <si>
+    <t>6:05 PM</t>
+  </si>
+  <si>
+    <t>(EI-HES)</t>
+  </si>
+  <si>
+    <t>6:12 PM</t>
+  </si>
+  <si>
+    <t>(HA-LXN)</t>
+  </si>
+  <si>
+    <t>7:38 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 33 minutes</t>
+  </si>
+  <si>
+    <t>9:48 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauda Europe </t>
+  </si>
+  <si>
+    <t>(9H-LMH)</t>
+  </si>
+  <si>
+    <t>10:12 PM</t>
+  </si>
+  <si>
+    <t>3V4101</t>
+  </si>
+  <si>
+    <t>(OE-IAB)</t>
+  </si>
+  <si>
+    <t>9:56 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -16 minutes</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10522,6 +10627,598 @@
       </c>
       <c r="M225" s="0"/>
     </row>
+    <row r="226">
+      <c r="A226" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E226" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F226" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G226" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I226" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J226" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K226" s="0"/>
+      <c r="L226" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="M226" s="0"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="0">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="E227" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="F227" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="G227" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H227" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I227" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="J227" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="K227" s="0"/>
+      <c r="L227" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="M227" s="0"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E228" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F228" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G228" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I228" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J228" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="K228" s="0"/>
+      <c r="L228" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M228" s="0"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E229" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F229" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G229" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H229" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I229" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="J229" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="K229" s="0"/>
+      <c r="L229" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M229" s="0"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E230" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="F230" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="G230" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H230" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I230" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J230" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="K230" s="0"/>
+      <c r="L230" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M230" s="0"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E231" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F231" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G231" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H231" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I231" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J231" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="K231" s="0"/>
+      <c r="L231" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M231" s="0"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E232" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="F232" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="G232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I232" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J232" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="K232" s="0"/>
+      <c r="L232" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M232" s="0"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E233" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F233" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G233" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H233" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I233" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J233" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="K233" s="0"/>
+      <c r="L233" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M233" s="0"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E234" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F234" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G234" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H234" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I234" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="J234" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K234" s="0"/>
+      <c r="L234" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M234" s="0"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E235" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F235" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G235" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H235" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I235" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="J235" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="K235" s="0"/>
+      <c r="L235" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M235" s="0"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E236" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="G236" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H236" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I236" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J236" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K236" s="0"/>
+      <c r="L236" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M236" s="0"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E237" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F237" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G237" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H237" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I237" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J237" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="K237" s="0"/>
+      <c r="L237" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M237" s="0"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E238" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F238" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G238" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H238" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I238" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J238" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="K238" s="0"/>
+      <c r="L238" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M238" s="0"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E239" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F239" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G239" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="H239" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I239" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="J239" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="K239" s="0"/>
+      <c r="L239" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M239" s="0"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="E240" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F240" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G240" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H240" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I240" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="J240" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="K240" s="0"/>
+      <c r="L240" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="M240" s="0"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E241" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F241" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G241" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H241" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I241" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J241" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K241" s="0"/>
+      <c r="L241" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M241" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="804">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2256,6 +2256,174 @@
   </si>
   <si>
     <t>10:30 PM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>1:35 AM</t>
+  </si>
+  <si>
+    <t>E41661</t>
+  </si>
+  <si>
+    <t>1:30 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -5 minutes</t>
+  </si>
+  <si>
+    <t>2:00 AM</t>
+  </si>
+  <si>
+    <t>E47927</t>
+  </si>
+  <si>
+    <t>2:06 AM</t>
+  </si>
+  <si>
+    <t>3:15 AM</t>
+  </si>
+  <si>
+    <t>3:22 AM</t>
+  </si>
+  <si>
+    <t>E47823</t>
+  </si>
+  <si>
+    <t>3:43 AM</t>
+  </si>
+  <si>
+    <t>3:55 AM</t>
+  </si>
+  <si>
+    <t>E47031</t>
+  </si>
+  <si>
+    <t>4:23 AM</t>
+  </si>
+  <si>
+    <t>4:05 AM</t>
+  </si>
+  <si>
+    <t>E44003</t>
+  </si>
+  <si>
+    <t>Sharm el-Sheikh</t>
+  </si>
+  <si>
+    <t>(SSH)</t>
+  </si>
+  <si>
+    <t>4:12 AM</t>
+  </si>
+  <si>
+    <t>5:17 AM</t>
+  </si>
+  <si>
+    <t>5:20 AM</t>
+  </si>
+  <si>
+    <t>E44113</t>
+  </si>
+  <si>
+    <t>5:23 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>5:53 AM</t>
+  </si>
+  <si>
+    <t>6:00 AM</t>
+  </si>
+  <si>
+    <t>6:09 AM</t>
+  </si>
+  <si>
+    <t>6:25 AM</t>
+  </si>
+  <si>
+    <t>Rovaniemi</t>
+  </si>
+  <si>
+    <t>(RVN)</t>
+  </si>
+  <si>
+    <t>(SP-ESC)</t>
+  </si>
+  <si>
+    <t>6:33 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYR)</t>
+  </si>
+  <si>
+    <t>6:54 AM</t>
+  </si>
+  <si>
+    <t>(D-ACNO)</t>
+  </si>
+  <si>
+    <t>7:40 AM</t>
+  </si>
+  <si>
+    <t>7:49 AM</t>
+  </si>
+  <si>
+    <t>(TC-SOL)</t>
+  </si>
+  <si>
+    <t>8:12 AM</t>
+  </si>
+  <si>
+    <t>8:04 AM</t>
+  </si>
+  <si>
+    <t>9:43 AM</t>
+  </si>
+  <si>
+    <t>10:47 AM</t>
+  </si>
+  <si>
+    <t>(TC-TJU)</t>
+  </si>
+  <si>
+    <t>10:54 AM</t>
+  </si>
+  <si>
+    <t>12:21 PM</t>
+  </si>
+  <si>
+    <t>(HA-LZF)</t>
+  </si>
+  <si>
+    <t>(HA-LWP)</t>
+  </si>
+  <si>
+    <t>(EI-EFO)</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNF)</t>
+  </si>
+  <si>
+    <t>2:23 PM</t>
+  </si>
+  <si>
+    <t>2:58 PM</t>
+  </si>
+  <si>
+    <t>3:45 PM</t>
+  </si>
+  <si>
+    <t>4:42 PM</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -11219,6 +11387,1375 @@
       </c>
       <c r="M241" s="0"/>
     </row>
+    <row r="242">
+      <c r="A242" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E242" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F242" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G242" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H242" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I242" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="J242" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="K242" s="0"/>
+      <c r="L242" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="M242" s="0"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="E243" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F243" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G243" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H243" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I243" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J243" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="K243" s="0"/>
+      <c r="L243" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M243" s="0"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E244" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F244" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G244" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H244" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I244" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J244" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="K244" s="0"/>
+      <c r="L244" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M244" s="0"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E245" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F245" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G245" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H245" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I245" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J245" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="K245" s="0"/>
+      <c r="L245" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M245" s="0"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="E246" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F246" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G246" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H246" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I246" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J246" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K246" s="0"/>
+      <c r="L246" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M246" s="0"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E247" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F247" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G247" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H247" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I247" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="J247" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="K247" s="0"/>
+      <c r="L247" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M247" s="0"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n" s="0">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E248" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F248" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G248" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H248" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I248" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J248" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="K248" s="0"/>
+      <c r="L248" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M248" s="0"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="0">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E249" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F249" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G249" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H249" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I249" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="J249" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="K249" s="0"/>
+      <c r="L249" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M249" s="0"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E250" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F250" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G250" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="H250" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I250" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="J250" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="K250" s="0"/>
+      <c r="L250" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M250" s="0"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E251" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F251" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G251" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H251" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I251" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J251" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="K251" s="0"/>
+      <c r="L251" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M251" s="0"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E252" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F252" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G252" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H252" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I252" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J252" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K252" s="0"/>
+      <c r="L252" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M252" s="0"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E253" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F253" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G253" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I253" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J253" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="K253" s="0"/>
+      <c r="L253" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M253" s="0"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E254" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="F254" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="G254" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H254" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I254" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="J254" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="K254" s="0"/>
+      <c r="L254" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M254" s="0"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E255" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F255" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G255" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H255" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I255" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J255" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="K255" s="0"/>
+      <c r="L255" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M255" s="0"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E256" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F256" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G256" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I256" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J256" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K256" s="0"/>
+      <c r="L256" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M256" s="0"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E257" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F257" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G257" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H257" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I257" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="J257" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="K257" s="0"/>
+      <c r="L257" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M257" s="0"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F258" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G258" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H258" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I258" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J258" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K258" s="0"/>
+      <c r="L258" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M258" s="0"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E259" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F259" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G259" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H259" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I259" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="J259" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="K259" s="0"/>
+      <c r="L259" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M259" s="0"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E260" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F260" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G260" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H260" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I260" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J260" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="K260" s="0"/>
+      <c r="L260" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M260" s="0"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E261" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F261" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G261" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H261" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I261" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J261" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="K261" s="0"/>
+      <c r="L261" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M261" s="0"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E262" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F262" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G262" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H262" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I262" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="J262" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="K262" s="0"/>
+      <c r="L262" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M262" s="0"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E263" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F263" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G263" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H263" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I263" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J263" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="K263" s="0"/>
+      <c r="L263" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M263" s="0"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E264" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F264" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G264" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H264" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I264" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J264" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="K264" s="0"/>
+      <c r="L264" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M264" s="0"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E265" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F265" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G265" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H265" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I265" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J265" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="K265" s="0"/>
+      <c r="L265" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M265" s="0"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E266" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F266" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G266" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H266" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I266" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="J266" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="K266" s="0"/>
+      <c r="L266" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M266" s="0"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E267" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F267" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G267" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H267" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I267" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J267" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K267" s="0"/>
+      <c r="L267" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M267" s="0"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E268" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="F268" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="G268" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H268" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I268" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="J268" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="K268" s="0"/>
+      <c r="L268" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M268" s="0"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="0">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E269" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F269" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G269" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H269" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I269" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J269" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K269" s="0"/>
+      <c r="L269" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M269" s="0"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E270" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F270" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G270" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H270" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I270" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="J270" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="K270" s="0"/>
+      <c r="L270" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M270" s="0"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E271" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F271" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G271" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H271" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I271" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J271" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="K271" s="0"/>
+      <c r="L271" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M271" s="0"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E272" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F272" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G272" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H272" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I272" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="J272" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="K272" s="0"/>
+      <c r="L272" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M272" s="0"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="0">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E273" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F273" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G273" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H273" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I273" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J273" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="K273" s="0"/>
+      <c r="L273" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M273" s="0"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E274" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F274" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G274" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H274" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I274" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="J274" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="K274" s="0"/>
+      <c r="L274" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M274" s="0"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E275" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F275" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G275" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H275" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I275" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J275" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K275" s="0"/>
+      <c r="L275" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M275" s="0"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E276" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F276" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="G276" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H276" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I276" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J276" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="K276" s="0"/>
+      <c r="L276" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M276" s="0"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n" s="0">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E277" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F277" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G277" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H277" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I277" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J277" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="K277" s="0"/>
+      <c r="L277" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M277" s="0"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E278" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F278" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G278" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H278" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I278" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="J278" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="K278" s="0"/>
+      <c r="L278" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M278" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="813">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2424,6 +2424,33 @@
   </si>
   <si>
     <t>4:42 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -13 minutes</t>
+  </si>
+  <si>
+    <t>7:10 PM</t>
+  </si>
+  <si>
+    <t>8:25 PM</t>
+  </si>
+  <si>
+    <t>8:44 PM</t>
+  </si>
+  <si>
+    <t>LPR42</t>
+  </si>
+  <si>
+    <t>(SP-MXS)</t>
+  </si>
+  <si>
+    <t>8:40 PM</t>
+  </si>
+  <si>
+    <t>(EI-GSH)</t>
+  </si>
+  <si>
+    <t>10:02 PM</t>
   </si>
 </sst>
 </file>
@@ -2468,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12756,6 +12783,191 @@
       </c>
       <c r="M278" s="0"/>
     </row>
+    <row r="279">
+      <c r="A279" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E279" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F279" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G279" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="H279" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I279" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="J279" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K279" s="0"/>
+      <c r="L279" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="M279" s="0"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E280" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F280" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G280" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H280" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I280" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J280" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K280" s="0"/>
+      <c r="L280" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M280" s="0"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E281" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F281" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G281" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H281" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I281" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J281" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="K281" s="0"/>
+      <c r="L281" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M281" s="0"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="E282" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F282" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G282" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="H282" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="I282" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="J282" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="K282" s="0"/>
+      <c r="L282" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M282" s="0"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E283" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F283" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G283" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H283" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I283" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="J283" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K283" s="0"/>
+      <c r="L283" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M283" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="843">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2451,6 +2451,96 @@
   </si>
   <si>
     <t>10:02 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>5:01 AM</t>
+  </si>
+  <si>
+    <t>5:04 AM</t>
+  </si>
+  <si>
+    <t>5:27 AM</t>
+  </si>
+  <si>
+    <t>(SP-RSH)</t>
+  </si>
+  <si>
+    <t>(OK-TSF)</t>
+  </si>
+  <si>
+    <t>6:16 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -44 minutes</t>
+  </si>
+  <si>
+    <t>(9H-QAK)</t>
+  </si>
+  <si>
+    <t>8:53 AM</t>
+  </si>
+  <si>
+    <t>9:38 AM</t>
+  </si>
+  <si>
+    <t>(EI-HMS)</t>
+  </si>
+  <si>
+    <t>10:05 AM</t>
+  </si>
+  <si>
+    <t>11:06 AM</t>
+  </si>
+  <si>
+    <t>11:35 AM</t>
+  </si>
+  <si>
+    <t>11:42 AM</t>
+  </si>
+  <si>
+    <t>Dammam</t>
+  </si>
+  <si>
+    <t>(DMM)</t>
+  </si>
+  <si>
+    <t>0 hours, 51 minutes</t>
+  </si>
+  <si>
+    <t>12:12 PM</t>
+  </si>
+  <si>
+    <t>12:22 PM</t>
+  </si>
+  <si>
+    <t>12:57 PM</t>
+  </si>
+  <si>
+    <t>1:46 PM</t>
+  </si>
+  <si>
+    <t>(EI-EVC)</t>
+  </si>
+  <si>
+    <t>1:53 PM</t>
+  </si>
+  <si>
+    <t>(D-ACNB)</t>
+  </si>
+  <si>
+    <t>2:20 PM</t>
+  </si>
+  <si>
+    <t>2:40 PM</t>
+  </si>
+  <si>
+    <t>3:59 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 19 minutes</t>
   </si>
 </sst>
 </file>
@@ -2495,7 +2585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12968,6 +13058,968 @@
       </c>
       <c r="M283" s="0"/>
     </row>
+    <row r="284">
+      <c r="A284" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="E284" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F284" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G284" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H284" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I284" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J284" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="K284" s="0"/>
+      <c r="L284" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M284" s="0"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E285" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F285" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G285" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H285" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I285" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J285" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="K285" s="0"/>
+      <c r="L285" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="M285" s="0"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n" s="0">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="E286" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F286" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G286" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H286" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I286" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J286" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="K286" s="0"/>
+      <c r="L286" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M286" s="0"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="E287" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F287" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G287" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H287" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I287" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J287" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="K287" s="0"/>
+      <c r="L287" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M287" s="0"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E288" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F288" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G288" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H288" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I288" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="J288" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="K288" s="0"/>
+      <c r="L288" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M288" s="0"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E289" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F289" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G289" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H289" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I289" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J289" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K289" s="0"/>
+      <c r="L289" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M289" s="0"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="E290" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F290" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G290" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H290" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I290" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J290" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K290" s="0"/>
+      <c r="L290" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M290" s="0"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="E291" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F291" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G291" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H291" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I291" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J291" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K291" s="0"/>
+      <c r="L291" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="M291" s="0"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E292" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F292" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H292" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I292" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J292" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="K292" s="0"/>
+      <c r="L292" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M292" s="0"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E293" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F293" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G293" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H293" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I293" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J293" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="K293" s="0"/>
+      <c r="L293" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M293" s="0"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E294" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="F294" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G294" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H294" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I294" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="J294" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="K294" s="0"/>
+      <c r="L294" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M294" s="0"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E295" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F295" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G295" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H295" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I295" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J295" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="K295" s="0"/>
+      <c r="L295" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M295" s="0"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E296" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F296" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G296" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H296" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I296" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="J296" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="K296" s="0"/>
+      <c r="L296" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M296" s="0"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E297" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F297" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G297" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H297" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I297" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J297" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="K297" s="0"/>
+      <c r="L297" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M297" s="0"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E298" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F298" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G298" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H298" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I298" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J298" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="K298" s="0"/>
+      <c r="L298" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M298" s="0"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E299" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F299" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G299" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H299" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I299" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="J299" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="K299" s="0"/>
+      <c r="L299" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M299" s="0"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E300" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="F300" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="G300" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H300" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I300" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="J300" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K300" s="0"/>
+      <c r="L300" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="M300" s="0"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E301" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F301" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G301" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H301" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I301" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J301" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="K301" s="0"/>
+      <c r="L301" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M301" s="0"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E302" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F302" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G302" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H302" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I302" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J302" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="K302" s="0"/>
+      <c r="L302" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M302" s="0"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="E303" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F303" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G303" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H303" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I303" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="J303" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="K303" s="0"/>
+      <c r="L303" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M303" s="0"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E304" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F304" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G304" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H304" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I304" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J304" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="K304" s="0"/>
+      <c r="L304" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M304" s="0"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="E305" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="F305" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="G305" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H305" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I305" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="J305" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="K305" s="0"/>
+      <c r="L305" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M305" s="0"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E306" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F306" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G306" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H306" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I306" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="J306" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="K306" s="0"/>
+      <c r="L306" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M306" s="0"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E307" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F307" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G307" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H307" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I307" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="J307" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="K307" s="0"/>
+      <c r="L307" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="M307" s="0"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E308" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F308" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G308" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H308" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I308" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J308" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="K308" s="0"/>
+      <c r="L308" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M308" s="0"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E309" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F309" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G309" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H309" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I309" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="J309" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="K309" s="0"/>
+      <c r="L309" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M309" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="847">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2541,6 +2541,18 @@
   </si>
   <si>
     <t>1 hours, 19 minutes</t>
+  </si>
+  <si>
+    <t>4:53 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHP)</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>5:51 PM</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M309"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -14020,6 +14032,117 @@
       </c>
       <c r="M309" s="0"/>
     </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E310" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F310" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G310" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H310" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I310" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J310" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K310" s="0"/>
+      <c r="L310" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M310" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E311" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F311" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G311" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H311" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I311" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="J311" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="K311" s="0"/>
+      <c r="L311" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M311" s="0"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E312" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F312" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G312" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H312" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I312" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J312" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="K312" s="0"/>
+      <c r="L312" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M312" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="858">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2553,6 +2553,39 @@
   </si>
   <si>
     <t>5:51 PM</t>
+  </si>
+  <si>
+    <t>6:26 PM</t>
+  </si>
+  <si>
+    <t>6:33 PM</t>
+  </si>
+  <si>
+    <t>(SU-TMJ)</t>
+  </si>
+  <si>
+    <t>8:34 PM</t>
+  </si>
+  <si>
+    <t>10:09 PM</t>
+  </si>
+  <si>
+    <t>11:21 PM</t>
+  </si>
+  <si>
+    <t>3V4639</t>
+  </si>
+  <si>
+    <t>Brno</t>
+  </si>
+  <si>
+    <t>(BRQ)</t>
+  </si>
+  <si>
+    <t>(OE-IXE)</t>
+  </si>
+  <si>
+    <t>11:37 PM</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M312"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -14143,6 +14176,228 @@
       </c>
       <c r="M312" s="0"/>
     </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E313" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F313" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G313" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H313" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I313" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J313" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K313" s="0"/>
+      <c r="L313" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M313" s="0"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E314" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="F314" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G314" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H314" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I314" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J314" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K314" s="0"/>
+      <c r="L314" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M314" s="0"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E315" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F315" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G315" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H315" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I315" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J315" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="K315" s="0"/>
+      <c r="L315" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M315" s="0"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="E316" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F316" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G316" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="H316" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I316" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="J316" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K316" s="0"/>
+      <c r="L316" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M316" s="0"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="E317" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F317" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G317" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H317" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I317" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="J317" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="K317" s="0"/>
+      <c r="L317" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M317" s="0"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="E318" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="F318" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="G318" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H318" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I318" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="J318" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="K318" s="0"/>
+      <c r="L318" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M318" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="875">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2586,6 +2586,57 @@
   </si>
   <si>
     <t>11:37 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>Gdansk</t>
+  </si>
+  <si>
+    <t>(GDN)</t>
+  </si>
+  <si>
+    <t>5:18 AM</t>
+  </si>
+  <si>
+    <t>5:52 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZD)</t>
+  </si>
+  <si>
+    <t>7:16 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>7:05 AM</t>
+  </si>
+  <si>
+    <t>Geilenkirchen</t>
+  </si>
+  <si>
+    <t>(GKE)</t>
+  </si>
+  <si>
+    <t>7:02 AM</t>
+  </si>
+  <si>
+    <t>7:46 AM</t>
+  </si>
+  <si>
+    <t>E47041</t>
+  </si>
+  <si>
+    <t>7:59 AM</t>
+  </si>
+  <si>
+    <t>9:30 AM</t>
+  </si>
+  <si>
+    <t>9:47 AM</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -14398,6 +14449,598 @@
       </c>
       <c r="M318" s="0"/>
     </row>
+    <row r="319">
+      <c r="A319" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E319" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="F319" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="G319" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H319" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I319" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="J319" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="K319" s="0"/>
+      <c r="L319" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="M319" s="0"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E320" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="F320" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="G320" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H320" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I320" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J320" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="K320" s="0"/>
+      <c r="L320" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M320" s="0"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E321" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F321" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G321" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H321" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I321" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J321" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="K321" s="0"/>
+      <c r="L321" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="M321" s="0"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E322" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F322" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G322" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H322" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I322" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="J322" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="K322" s="0"/>
+      <c r="L322" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M322" s="0"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E323" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F323" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G323" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H323" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I323" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J323" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="K323" s="0"/>
+      <c r="L323" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="M323" s="0"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E324" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F324" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G324" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H324" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I324" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J324" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="K324" s="0"/>
+      <c r="L324" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M324" s="0"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E325" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F325" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G325" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H325" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I325" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J325" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="K325" s="0"/>
+      <c r="L325" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M325" s="0"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E326" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F326" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G326" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H326" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I326" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J326" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="K326" s="0"/>
+      <c r="L326" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="M326" s="0"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E327" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F327" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G327" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H327" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I327" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="J327" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="K327" s="0"/>
+      <c r="L327" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="M327" s="0"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E328" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="F328" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="G328" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H328" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I328" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J328" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="K328" s="0"/>
+      <c r="L328" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M328" s="0"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E329" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F329" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G329" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H329" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I329" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J329" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K329" s="0"/>
+      <c r="L329" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M329" s="0"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E330" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F330" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G330" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H330" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I330" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J330" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="K330" s="0"/>
+      <c r="L330" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M330" s="0"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="E331" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F331" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G331" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H331" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I331" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J331" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="K331" s="0"/>
+      <c r="L331" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M331" s="0"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="E332" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F332" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G332" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H332" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I332" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J332" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="K332" s="0"/>
+      <c r="L332" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M332" s="0"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E333" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F333" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G333" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H333" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I333" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J333" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="K333" s="0"/>
+      <c r="L333" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="M333" s="0"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E334" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F334" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G334" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H334" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I334" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J334" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="K334" s="0"/>
+      <c r="L334" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M334" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3340" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="951">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2637,6 +2637,234 @@
   </si>
   <si>
     <t>9:47 AM</t>
+  </si>
+  <si>
+    <t>1:14 PM</t>
+  </si>
+  <si>
+    <t>2:31 PM</t>
+  </si>
+  <si>
+    <t>4:27 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>3:32 PM</t>
+  </si>
+  <si>
+    <t>4:23 PM</t>
+  </si>
+  <si>
+    <t>5:45 PM</t>
+  </si>
+  <si>
+    <t>5:57 PM</t>
+  </si>
+  <si>
+    <t>6:27 PM</t>
+  </si>
+  <si>
+    <t>6:57 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>(TF-BBQ)</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL (No. 1 Best Workplace Stickers) </t>
+  </si>
+  <si>
+    <t>(D-ALEN)</t>
+  </si>
+  <si>
+    <t>3:46 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -14 minutes</t>
+  </si>
+  <si>
+    <t>6:04 AM</t>
+  </si>
+  <si>
+    <t>6:56 AM</t>
+  </si>
+  <si>
+    <t>(HA-LWR)</t>
+  </si>
+  <si>
+    <t>7:29 AM</t>
+  </si>
+  <si>
+    <t>7:44 AM</t>
+  </si>
+  <si>
+    <t>(SP-RKS)</t>
+  </si>
+  <si>
+    <t>8:06 AM</t>
+  </si>
+  <si>
+    <t>11:18 AM</t>
+  </si>
+  <si>
+    <t>(EI-HGE)</t>
+  </si>
+  <si>
+    <t>(HA-LXC)</t>
+  </si>
+  <si>
+    <t>1:21 PM</t>
+  </si>
+  <si>
+    <t>1:44 PM</t>
+  </si>
+  <si>
+    <t>2:00 PM</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>(CAI)</t>
+  </si>
+  <si>
+    <t>2:21 PM</t>
+  </si>
+  <si>
+    <t>4:44 PM</t>
+  </si>
+  <si>
+    <t>4:49 PM</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>(BRN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Hamburg </t>
+  </si>
+  <si>
+    <t>E35L</t>
+  </si>
+  <si>
+    <t>(D-AJET)</t>
+  </si>
+  <si>
+    <t>5:06 PM</t>
+  </si>
+  <si>
+    <t>6:19 PM</t>
+  </si>
+  <si>
+    <t>(9H-QEK)</t>
+  </si>
+  <si>
+    <t>9:44 PM</t>
+  </si>
+  <si>
+    <t>(OE-IAC)</t>
+  </si>
+  <si>
+    <t>10:29 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>(D-ALES)</t>
+  </si>
+  <si>
+    <t>3:57 AM</t>
+  </si>
+  <si>
+    <t>5:15 AM</t>
+  </si>
+  <si>
+    <t>(SP-LWD)</t>
+  </si>
+  <si>
+    <t>6:31 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>6:36 AM</t>
+  </si>
+  <si>
+    <t>6:46 AM</t>
+  </si>
+  <si>
+    <t>7:58 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>11:29 AM</t>
+  </si>
+  <si>
+    <t>12:13 PM</t>
+  </si>
+  <si>
+    <t>LO9501</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>(KTW)</t>
+  </si>
+  <si>
+    <t>DH8D</t>
+  </si>
+  <si>
+    <t>(SP-EQB)</t>
+  </si>
+  <si>
+    <t>3 hours, 50 minutes</t>
+  </si>
+  <si>
+    <t>0 hours, 32 minutes</t>
+  </si>
+  <si>
+    <t>2:52 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 37 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LMB)</t>
+  </si>
+  <si>
+    <t>3:24 PM</t>
+  </si>
+  <si>
+    <t>6:37 PM</t>
+  </si>
+  <si>
+    <t>(EI-HEN)</t>
+  </si>
+  <si>
+    <t>7:47 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 7 minutes</t>
+  </si>
+  <si>
+    <t>7:51 PM</t>
+  </si>
+  <si>
+    <t>9:47 PM</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M405"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -15041,6 +15269,2633 @@
       </c>
       <c r="M334" s="0"/>
     </row>
+    <row r="335">
+      <c r="A335" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E335" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F335" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G335" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H335" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I335" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J335" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="K335" s="0"/>
+      <c r="L335" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M335" s="0"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E336" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F336" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G336" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H336" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I336" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="J336" t="s" s="0">
+        <v>876</v>
+      </c>
+      <c r="K336" s="0"/>
+      <c r="L336" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M336" s="0"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E337" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F337" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G337" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="H337" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I337" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="J337" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="K337" s="0"/>
+      <c r="L337" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="M337" s="0"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E338" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F338" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G338" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H338" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I338" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J338" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="K338" s="0"/>
+      <c r="L338" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M338" s="0"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E339" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="F339" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="G339" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H339" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I339" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J339" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="K339" s="0"/>
+      <c r="L339" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M339" s="0"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E340" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="F340" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="G340" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H340" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I340" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J340" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="K340" s="0"/>
+      <c r="L340" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M340" s="0"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E341" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F341" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G341" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H341" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I341" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="J341" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="K341" s="0"/>
+      <c r="L341" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M341" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="0">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="E342" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="F342" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="G342" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="H342" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="I342" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="J342" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K342" s="0"/>
+      <c r="L342" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M342" s="0"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E343" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F343" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G343" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H343" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I343" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="J343" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="K343" s="0"/>
+      <c r="L343" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M343" s="0"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E344" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F344" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G344" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H344" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I344" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J344" t="s" s="0">
+        <v>883</v>
+      </c>
+      <c r="K344" s="0"/>
+      <c r="L344" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M344" s="0"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E345" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="F345" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="G345" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H345" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I345" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J345" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="K345" s="0"/>
+      <c r="L345" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M345" s="0"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E346" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F346" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G346" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H346" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I346" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J346" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="K346" s="0"/>
+      <c r="L346" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M346" s="0"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E347" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F347" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G347" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H347" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I347" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="J347" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="K347" s="0"/>
+      <c r="L347" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M347" s="0"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E348" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F348" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G348" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H348" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I348" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="J348" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K348" s="0"/>
+      <c r="L348" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M348" s="0"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E349" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F349" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G349" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="H349" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I349" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="J349" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="K349" s="0"/>
+      <c r="L349" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="M349" s="0"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E350" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F350" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G350" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H350" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I350" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J350" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="K350" s="0"/>
+      <c r="L350" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M350" s="0"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E351" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F351" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G351" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H351" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I351" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J351" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="K351" s="0"/>
+      <c r="L351" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M351" s="0"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E352" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F352" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G352" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H352" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I352" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="J352" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K352" s="0"/>
+      <c r="L352" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M352" s="0"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="0">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E353" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F353" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G353" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H353" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I353" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J353" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="K353" s="0"/>
+      <c r="L353" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M353" s="0"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E354" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="F354" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="G354" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H354" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I354" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J354" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="K354" s="0"/>
+      <c r="L354" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M354" s="0"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E355" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F355" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G355" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H355" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I355" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J355" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="K355" s="0"/>
+      <c r="L355" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M355" s="0"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E356" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F356" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G356" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H356" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I356" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="J356" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="K356" s="0"/>
+      <c r="L356" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M356" s="0"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E357" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F357" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G357" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H357" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I357" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J357" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="K357" s="0"/>
+      <c r="L357" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M357" s="0"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E358" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="F358" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="G358" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H358" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I358" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J358" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K358" s="0"/>
+      <c r="L358" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M358" s="0"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E359" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F359" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G359" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H359" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I359" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J359" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="K359" s="0"/>
+      <c r="L359" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M359" s="0"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="E360" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F360" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G360" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H360" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I360" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J360" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="K360" s="0"/>
+      <c r="L360" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M360" s="0"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E361" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F361" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G361" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H361" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I361" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J361" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="K361" s="0"/>
+      <c r="L361" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M361" s="0"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E362" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F362" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G362" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H362" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I362" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J362" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="K362" s="0"/>
+      <c r="L362" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M362" s="0"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E363" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F363" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G363" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H363" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I363" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="J363" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="K363" s="0"/>
+      <c r="L363" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M363" s="0"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E364" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F364" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G364" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H364" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I364" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J364" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="K364" s="0"/>
+      <c r="L364" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M364" s="0"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="0">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E365" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F365" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G365" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H365" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I365" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J365" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="K365" s="0"/>
+      <c r="L365" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M365" s="0"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="0">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E366" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F366" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G366" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H366" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I366" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J366" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K366" s="0"/>
+      <c r="L366" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M366" s="0"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E367" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F367" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G367" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H367" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I367" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J367" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="K367" s="0"/>
+      <c r="L367" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="M367" s="0"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E368" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F368" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G368" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H368" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I368" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J368" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="K368" s="0"/>
+      <c r="L368" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M368" s="0"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="0">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E369" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="F369" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="G369" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="H369" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="I369" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="J369" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="K369" s="0"/>
+      <c r="L369" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M369" s="0"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E370" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F370" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G370" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H370" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I370" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="J370" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="K370" s="0"/>
+      <c r="L370" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="M370" s="0"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E371" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F371" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G371" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H371" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I371" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J371" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K371" s="0"/>
+      <c r="L371" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="M371" s="0"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E372" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F372" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="G372" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H372" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I372" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J372" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="K372" s="0"/>
+      <c r="L372" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M372" s="0"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D373" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E373" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F373" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G373" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H373" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I373" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J373" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="K373" s="0"/>
+      <c r="L373" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="M373" s="0"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D374" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E374" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F374" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G374" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H374" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I374" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J374" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="K374" s="0"/>
+      <c r="L374" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="M374" s="0"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="D375" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E375" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="F375" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="G375" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="H375" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="I375" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="J375" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="K375" s="0"/>
+      <c r="L375" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M375" s="0"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D376" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E376" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F376" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G376" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H376" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I376" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J376" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="K376" s="0"/>
+      <c r="L376" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="M376" s="0"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D377" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E377" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F377" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G377" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H377" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I377" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="J377" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K377" s="0"/>
+      <c r="L377" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="M377" s="0"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D378" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E378" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F378" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G378" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H378" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I378" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J378" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="K378" s="0"/>
+      <c r="L378" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M378" s="0"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D379" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E379" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F379" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G379" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H379" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I379" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="J379" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="K379" s="0"/>
+      <c r="L379" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M379" s="0"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D380" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E380" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F380" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G380" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H380" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I380" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="J380" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="K380" s="0"/>
+      <c r="L380" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M380" s="0"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D381" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E381" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F381" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G381" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H381" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I381" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="J381" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="K381" s="0"/>
+      <c r="L381" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M381" s="0"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n" s="0">
+        <v>381.0</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D382" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E382" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F382" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G382" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H382" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I382" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J382" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="K382" s="0"/>
+      <c r="L382" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M382" s="0"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D383" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="E383" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="F383" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="G383" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H383" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I383" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="J383" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="K383" s="0"/>
+      <c r="L383" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="M383" s="0"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E384" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F384" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G384" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H384" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I384" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="J384" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="K384" s="0"/>
+      <c r="L384" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M384" s="0"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n" s="0">
+        <v>384.0</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E385" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F385" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G385" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H385" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I385" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J385" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="K385" s="0"/>
+      <c r="L385" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M385" s="0"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E386" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F386" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G386" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H386" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I386" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J386" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="K386" s="0"/>
+      <c r="L386" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M386" s="0"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="E387" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F387" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G387" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H387" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I387" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J387" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="K387" s="0"/>
+      <c r="L387" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="M387" s="0"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n" s="0">
+        <v>387.0</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E388" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F388" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G388" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H388" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I388" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J388" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="K388" s="0"/>
+      <c r="L388" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M388" s="0"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n" s="0">
+        <v>388.0</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E389" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F389" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G389" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H389" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I389" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J389" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="K389" s="0"/>
+      <c r="L389" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M389" s="0"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E390" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F390" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G390" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H390" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I390" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J390" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K390" s="0"/>
+      <c r="L390" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M390" s="0"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E391" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="F391" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="G391" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H391" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I391" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J391" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K391" s="0"/>
+      <c r="L391" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M391" s="0"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E392" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F392" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G392" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H392" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I392" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J392" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="K392" s="0"/>
+      <c r="L392" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M392" s="0"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E393" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F393" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G393" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H393" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I393" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J393" t="s" s="0">
+        <v>932</v>
+      </c>
+      <c r="K393" s="0"/>
+      <c r="L393" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M393" s="0"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E394" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F394" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G394" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H394" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I394" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="J394" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="K394" s="0"/>
+      <c r="L394" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M394" s="0"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n" s="0">
+        <v>394.0</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="E395" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="F395" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="G395" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H395" t="s" s="0">
+        <v>937</v>
+      </c>
+      <c r="I395" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="J395" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="K395" s="0"/>
+      <c r="L395" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="M395" s="0"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n" s="0">
+        <v>395.0</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E396" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F396" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G396" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H396" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I396" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J396" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="K396" s="0"/>
+      <c r="L396" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M396" s="0"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n" s="0">
+        <v>396.0</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E397" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F397" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G397" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H397" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I397" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J397" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K397" s="0"/>
+      <c r="L397" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="M397" s="0"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n" s="0">
+        <v>397.0</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E398" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F398" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G398" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H398" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I398" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J398" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="K398" s="0"/>
+      <c r="L398" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="M398" s="0"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E399" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F399" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G399" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H399" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I399" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="J399" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K399" s="0"/>
+      <c r="L399" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="M399" s="0"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n" s="0">
+        <v>399.0</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E400" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F400" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G400" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H400" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I400" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J400" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="K400" s="0"/>
+      <c r="L400" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M400" s="0"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E401" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F401" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G401" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H401" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I401" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J401" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="K401" s="0"/>
+      <c r="L401" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="M401" s="0"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E402" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="F402" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G402" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H402" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I402" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J402" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="K402" s="0"/>
+      <c r="L402" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M402" s="0"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n" s="0">
+        <v>402.0</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E403" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F403" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G403" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H403" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I403" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="J403" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="K403" s="0"/>
+      <c r="L403" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="M403" s="0"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E404" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F404" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G404" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H404" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I404" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J404" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="K404" s="0"/>
+      <c r="L404" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="M404" s="0"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E405" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F405" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G405" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H405" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I405" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J405" t="s" s="0">
+        <v>950</v>
+      </c>
+      <c r="K405" s="0"/>
+      <c r="L405" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M405" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1044">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2865,6 +2865,285 @@
   </si>
   <si>
     <t>9:47 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t>4:15 AM</t>
+  </si>
+  <si>
+    <t>Wroclaw</t>
+  </si>
+  <si>
+    <t>(WRO)</t>
+  </si>
+  <si>
+    <t>5:51 AM</t>
+  </si>
+  <si>
+    <t>(SP-LMH)</t>
+  </si>
+  <si>
+    <t>6:26 AM</t>
+  </si>
+  <si>
+    <t>6:43 AM</t>
+  </si>
+  <si>
+    <t>6:57 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LTB)</t>
+  </si>
+  <si>
+    <t>7:42 AM</t>
+  </si>
+  <si>
+    <t>10:32 AM</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>(SP-RSQ)</t>
+  </si>
+  <si>
+    <t>1 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>1:22 PM</t>
+  </si>
+  <si>
+    <t>1:39 PM</t>
+  </si>
+  <si>
+    <t>2:27 PM</t>
+  </si>
+  <si>
+    <t>(9H-WBR)</t>
+  </si>
+  <si>
+    <t>4:03 PM</t>
+  </si>
+  <si>
+    <t>(SP-LND)</t>
+  </si>
+  <si>
+    <t>3:19 PM</t>
+  </si>
+  <si>
+    <t>4:09 PM</t>
+  </si>
+  <si>
+    <t>LO6517</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>(HKT)</t>
+  </si>
+  <si>
+    <t>4:29 PM</t>
+  </si>
+  <si>
+    <t>6:21 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HMY)</t>
+  </si>
+  <si>
+    <t>0 hours, 52 minutes</t>
+  </si>
+  <si>
+    <t>7:04 PM</t>
+  </si>
+  <si>
+    <t>7:24 PM</t>
+  </si>
+  <si>
+    <t>(9H-LAX)</t>
+  </si>
+  <si>
+    <t>11:30 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 50 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair (Boeing Livery) </t>
+  </si>
+  <si>
+    <t>(EI-DCL)</t>
+  </si>
+  <si>
+    <t>11:20 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 20 minutes</t>
+  </si>
+  <si>
+    <t>10:37 PM</t>
+  </si>
+  <si>
+    <t>11:17 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 57 minutes</t>
+  </si>
+  <si>
+    <t>11:00 PM</t>
+  </si>
+  <si>
+    <t>DY8942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian (Helmer Hansen Livery) </t>
+  </si>
+  <si>
+    <t>(LN-NIB)</t>
+  </si>
+  <si>
+    <t>12:38 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 38 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>2:21 AM</t>
+  </si>
+  <si>
+    <t>2:36 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 50 minutes</t>
+  </si>
+  <si>
+    <t>(SP-ENQ)</t>
+  </si>
+  <si>
+    <t>4:52 AM</t>
+  </si>
+  <si>
+    <t>6:03 AM</t>
+  </si>
+  <si>
+    <t>(SP-LMF)</t>
+  </si>
+  <si>
+    <t>0 hours, 55 minutes</t>
+  </si>
+  <si>
+    <t>6:59 AM</t>
+  </si>
+  <si>
+    <t>7:14 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 22 minutes</t>
+  </si>
+  <si>
+    <t>A20N</t>
+  </si>
+  <si>
+    <t>(9HWBW)</t>
+  </si>
+  <si>
+    <t>1 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>8:38 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 58 minutes</t>
+  </si>
+  <si>
+    <t>9:20 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LWJ)</t>
+  </si>
+  <si>
+    <t>9:11 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 46 minutes</t>
+  </si>
+  <si>
+    <t>(TC-SOI)</t>
+  </si>
+  <si>
+    <t>9:14 AM</t>
+  </si>
+  <si>
+    <t>8:57 AM</t>
+  </si>
+  <si>
+    <t>8:15 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZO)</t>
+  </si>
+  <si>
+    <t>9:53 AM</t>
+  </si>
+  <si>
+    <t>9:15 AM</t>
+  </si>
+  <si>
+    <t>RR970</t>
+  </si>
+  <si>
+    <t>9:37 AM</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>Bolzano</t>
+  </si>
+  <si>
+    <t>(BZO)</t>
+  </si>
+  <si>
+    <t>(SP-MSG)</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>12:17 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 52 minutes</t>
+  </si>
+  <si>
+    <t>(TC-TJV)</t>
+  </si>
+  <si>
+    <t>11:09 AM</t>
+  </si>
+  <si>
+    <t>12:49 PM</t>
+  </si>
+  <si>
+    <t>2:08 PM</t>
+  </si>
+  <si>
+    <t>1:59 PM</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +3188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M405"/>
+  <dimension ref="A1:M473"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -17896,6 +18175,2522 @@
       </c>
       <c r="M405" s="0"/>
     </row>
+    <row r="406">
+      <c r="A406" t="n" s="0">
+        <v>405.0</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E406" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F406" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G406" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H406" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I406" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="J406" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="K406" s="0"/>
+      <c r="L406" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M406" s="0"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E407" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F407" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G407" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H407" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I407" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J407" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="K407" s="0"/>
+      <c r="L407" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M407" s="0"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E408" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="F408" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="G408" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H408" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I408" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="J408" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="K408" s="0"/>
+      <c r="L408" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M408" s="0"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n" s="0">
+        <v>408.0</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E409" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F409" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G409" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H409" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I409" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="J409" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="K409" s="0"/>
+      <c r="L409" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M409" s="0"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E410" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F410" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G410" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H410" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I410" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J410" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="K410" s="0"/>
+      <c r="L410" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M410" s="0"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n" s="0">
+        <v>410.0</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E411" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F411" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G411" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H411" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I411" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J411" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="K411" s="0"/>
+      <c r="L411" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M411" s="0"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E412" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F412" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G412" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H412" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I412" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J412" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="K412" s="0"/>
+      <c r="L412" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M412" s="0"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n" s="0">
+        <v>412.0</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E413" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F413" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G413" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H413" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I413" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J413" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="K413" s="0"/>
+      <c r="L413" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M413" s="0"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n" s="0">
+        <v>413.0</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="E414" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="F414" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="G414" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H414" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I414" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J414" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K414" s="0"/>
+      <c r="L414" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M414" s="0"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E415" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F415" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G415" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H415" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I415" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J415" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="K415" s="0"/>
+      <c r="L415" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="M415" s="0"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n" s="0">
+        <v>415.0</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E416" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F416" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G416" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H416" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I416" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="J416" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="K416" s="0"/>
+      <c r="L416" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M416" s="0"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n" s="0">
+        <v>416.0</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E417" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F417" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G417" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H417" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I417" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J417" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K417" s="0"/>
+      <c r="L417" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="M417" s="0"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n" s="0">
+        <v>417.0</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="E418" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F418" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G418" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H418" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I418" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J418" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="K418" s="0"/>
+      <c r="L418" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M418" s="0"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E419" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F419" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G419" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H419" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I419" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J419" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="K419" s="0"/>
+      <c r="L419" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="M419" s="0"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="E420" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="F420" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="G420" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H420" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I420" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J420" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="K420" s="0"/>
+      <c r="L420" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="M420" s="0"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J421" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="K421" s="0"/>
+      <c r="L421" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M421" s="0"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J422" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="K422" s="0"/>
+      <c r="L422" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M422" s="0"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J423" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="K423" s="0"/>
+      <c r="L423" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="M423" s="0"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n" s="0">
+        <v>423.0</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J424" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="K424" s="0"/>
+      <c r="L424" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="M424" s="0"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n" s="0">
+        <v>424.0</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J425" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="K425" s="0"/>
+      <c r="L425" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M425" s="0"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J426" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="K426" s="0"/>
+      <c r="L426" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M426" s="0"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J427" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="K427" s="0"/>
+      <c r="L427" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M427" s="0"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="J428" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="K428" s="0"/>
+      <c r="L428" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="M428" s="0"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n" s="0">
+        <v>428.0</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="K429" s="0"/>
+      <c r="L429" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M429" s="0"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J430" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="K430" s="0"/>
+      <c r="L430" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M430" s="0"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J431" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="K431" s="0"/>
+      <c r="L431" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M431" s="0"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n" s="0">
+        <v>431.0</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E432" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="F432" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="G432" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H432" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I432" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J432" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="K432" s="0"/>
+      <c r="L432" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M432" s="0"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E433" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F433" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G433" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H433" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I433" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J433" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="K433" s="0"/>
+      <c r="L433" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="M433" s="0"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n" s="0">
+        <v>433.0</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E434" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F434" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G434" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H434" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I434" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="J434" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="K434" s="0"/>
+      <c r="L434" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M434" s="0"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E435" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F435" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G435" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H435" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I435" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="J435" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="K435" s="0"/>
+      <c r="L435" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="M435" s="0"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E436" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="F436" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="G436" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H436" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I436" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J436" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="K436" s="0"/>
+      <c r="L436" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M436" s="0"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n" s="0">
+        <v>436.0</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E437" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F437" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G437" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H437" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I437" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="J437" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="K437" s="0"/>
+      <c r="L437" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="M437" s="0"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E438" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F438" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G438" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H438" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I438" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="J438" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="K438" s="0"/>
+      <c r="L438" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M438" s="0"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n" s="0">
+        <v>438.0</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E439" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F439" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G439" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="H439" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I439" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="J439" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="K439" s="0"/>
+      <c r="L439" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="M439" s="0"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n" s="0">
+        <v>439.0</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E440" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F440" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G440" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="H440" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I440" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="J440" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="K440" s="0"/>
+      <c r="L440" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="M440" s="0"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n" s="0">
+        <v>440.0</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="E441" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F441" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G441" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H441" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I441" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="J441" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="K441" s="0"/>
+      <c r="L441" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M441" s="0"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n" s="0">
+        <v>441.0</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E442" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F442" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G442" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H442" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I442" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="J442" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="K442" s="0"/>
+      <c r="L442" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="M442" s="0"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>995</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="E443" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F443" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G443" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="H443" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I443" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="J443" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="K443" s="0"/>
+      <c r="L443" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="M443" s="0"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E444" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F444" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G444" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H444" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I444" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="J444" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="K444" s="0"/>
+      <c r="L444" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="M444" s="0"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="E445" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F445" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G445" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H445" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I445" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J445" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="K445" s="0"/>
+      <c r="L445" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="M445" s="0"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E446" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F446" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G446" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H446" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I446" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="J446" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="K446" s="0"/>
+      <c r="L446" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="M446" s="0"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n" s="0">
+        <v>446.0</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E447" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F447" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G447" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H447" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I447" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J447" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="K447" s="0"/>
+      <c r="L447" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="M447" s="0"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="E448" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F448" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G448" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H448" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I448" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J448" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K448" s="0"/>
+      <c r="L448" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="M448" s="0"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E449" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F449" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G449" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H449" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I449" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="J449" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="K449" s="0"/>
+      <c r="L449" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="M449" s="0"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E450" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F450" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G450" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H450" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I450" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J450" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="K450" s="0"/>
+      <c r="L450" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="M450" s="0"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D451" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E451" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F451" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G451" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H451" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I451" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J451" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="K451" s="0"/>
+      <c r="L451" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M451" s="0"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n" s="0">
+        <v>451.0</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D452" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E452" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F452" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G452" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H452" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I452" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="J452" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="K452" s="0"/>
+      <c r="L452" t="s" s="0">
+        <v>1009</v>
+      </c>
+      <c r="M452" s="0"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="n" s="0">
+        <v>452.0</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D453" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E453" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F453" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G453" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H453" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I453" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J453" t="s" s="0">
+        <v>1010</v>
+      </c>
+      <c r="K453" s="0"/>
+      <c r="L453" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M453" s="0"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n" s="0">
+        <v>453.0</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D454" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E454" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F454" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G454" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H454" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I454" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J454" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="K454" s="0"/>
+      <c r="L454" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M454" s="0"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D455" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E455" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F455" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G455" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H455" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I455" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J455" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="K455" s="0"/>
+      <c r="L455" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="M455" s="0"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n" s="0">
+        <v>455.0</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D456" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E456" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F456" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G456" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H456" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I456" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J456" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K456" s="0"/>
+      <c r="L456" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="M456" s="0"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n" s="0">
+        <v>456.0</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D457" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E457" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F457" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G457" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H457" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="I457" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J457" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="K457" s="0"/>
+      <c r="L457" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="M457" s="0"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D458" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E458" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F458" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G458" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H458" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I458" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="J458" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="K458" s="0"/>
+      <c r="L458" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="M458" s="0"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n" s="0">
+        <v>458.0</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D459" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E459" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F459" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G459" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H459" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I459" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="J459" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="K459" s="0"/>
+      <c r="L459" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="M459" s="0"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n" s="0">
+        <v>459.0</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D460" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E460" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F460" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G460" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H460" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I460" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="J460" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="K460" s="0"/>
+      <c r="L460" t="s" s="0">
+        <v>1022</v>
+      </c>
+      <c r="M460" s="0"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D461" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E461" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F461" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G461" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H461" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I461" t="s" s="0">
+        <v>1023</v>
+      </c>
+      <c r="J461" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="K461" s="0"/>
+      <c r="L461" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="M461" s="0"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n" s="0">
+        <v>461.0</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D462" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E462" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F462" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G462" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H462" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I462" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J462" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="K462" s="0"/>
+      <c r="L462" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M462" s="0"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n" s="0">
+        <v>462.0</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="D463" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E463" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F463" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G463" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H463" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I463" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="J463" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="K463" s="0"/>
+      <c r="L463" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="M463" s="0"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="D464" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="E464" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F464" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G464" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H464" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I464" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="J464" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="K464" s="0"/>
+      <c r="L464" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M464" s="0"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="0">
+        <v>464.0</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D465" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E465" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F465" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G465" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H465" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I465" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J465" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="K465" s="0"/>
+      <c r="L465" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M465" s="0"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n" s="0">
+        <v>465.0</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D466" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E466" t="s" s="0">
+        <v>1033</v>
+      </c>
+      <c r="F466" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="G466" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="H466" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="I466" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="J466" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="K466" s="0"/>
+      <c r="L466" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M466" s="0"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n" s="0">
+        <v>466.0</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D467" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E467" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F467" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G467" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H467" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I467" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J467" t="s" s="0">
+        <v>1037</v>
+      </c>
+      <c r="K467" s="0"/>
+      <c r="L467" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="M467" s="0"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D468" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E468" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F468" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G468" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H468" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I468" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="J468" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="K468" s="0"/>
+      <c r="L468" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M468" s="0"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D469" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E469" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F469" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G469" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H469" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I469" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J469" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="K469" s="0"/>
+      <c r="L469" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M469" s="0"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n" s="0">
+        <v>469.0</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D470" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E470" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="F470" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="G470" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H470" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="I470" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J470" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="K470" s="0"/>
+      <c r="L470" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M470" s="0"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n" s="0">
+        <v>470.0</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D471" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E471" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F471" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G471" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H471" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I471" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="J471" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="K471" s="0"/>
+      <c r="L471" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="M471" s="0"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D472" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E472" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F472" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G472" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H472" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I472" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="J472" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K472" s="0"/>
+      <c r="L472" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M472" s="0"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D473" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E473" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F473" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G473" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H473" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I473" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="J473" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="K473" s="0"/>
+      <c r="L473" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M473" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="1156">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2867,283 +2867,619 @@
     <t>9:47 PM</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t>4:15 AM</t>
-  </si>
-  <si>
-    <t>Wroclaw</t>
-  </si>
-  <si>
-    <t>(WRO)</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>(HA-LVO)</t>
+  </si>
+  <si>
+    <t>1:51 PM</t>
+  </si>
+  <si>
+    <t>2:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 56 minutes</t>
+  </si>
+  <si>
+    <t>EN8761</t>
+  </si>
+  <si>
+    <t>(I-JENE)</t>
+  </si>
+  <si>
+    <t>3:28 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 13 minutes</t>
+  </si>
+  <si>
+    <t>3:17 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMC)</t>
+  </si>
+  <si>
+    <t>5:22 PM</t>
+  </si>
+  <si>
+    <t>(EI-DWR)</t>
+  </si>
+  <si>
+    <t>5:54 PM</t>
+  </si>
+  <si>
+    <t>6:39 PM</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>(SZG)</t>
+  </si>
+  <si>
+    <t>6:08 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSQ)</t>
+  </si>
+  <si>
+    <t>7:01 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t>(9H-QAF)</t>
+  </si>
+  <si>
+    <t>11:20 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>(OE-IXH)</t>
+  </si>
+  <si>
+    <t>12:34 AM</t>
+  </si>
+  <si>
+    <t>11:53 PM</t>
+  </si>
+  <si>
+    <t>(HA-LZG)</t>
+  </si>
+  <si>
+    <t>1:03 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 10 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 23</t>
+  </si>
+  <si>
+    <t>12:00 AM</t>
+  </si>
+  <si>
+    <t>(SP-RZG)</t>
+  </si>
+  <si>
+    <t>1:40 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 40 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LVG)</t>
+  </si>
+  <si>
+    <t>1:12 AM</t>
+  </si>
+  <si>
+    <t>12:55 AM</t>
+  </si>
+  <si>
+    <t>(SP-RZF)</t>
+  </si>
+  <si>
+    <t>1:22 AM</t>
+  </si>
+  <si>
+    <t>1:00 AM</t>
+  </si>
+  <si>
+    <t>(SP-RZK)</t>
+  </si>
+  <si>
+    <t>2:01 AM</t>
+  </si>
+  <si>
+    <t>3:00 AM</t>
+  </si>
+  <si>
+    <t>Belgrade</t>
+  </si>
+  <si>
+    <t>(BEG)</t>
+  </si>
+  <si>
+    <t>(HA-LXJ)</t>
+  </si>
+  <si>
+    <t>4:09 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 9 minutes</t>
+  </si>
+  <si>
+    <t>6:32 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 22 minutes</t>
+  </si>
+  <si>
+    <t>(9H-WAJ)</t>
+  </si>
+  <si>
+    <t>EN8763</t>
+  </si>
+  <si>
+    <t>6:39 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZO)</t>
+  </si>
+  <si>
+    <t>6:43 AM</t>
+  </si>
+  <si>
+    <t>7:26 AM</t>
+  </si>
+  <si>
+    <t>LH1625</t>
+  </si>
+  <si>
+    <t>(D-AIZE)</t>
+  </si>
+  <si>
+    <t>11:12 AM</t>
+  </si>
+  <si>
+    <t>3 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>7:51 AM</t>
+  </si>
+  <si>
+    <t>8:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK Aviation Group </t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>(OK-CTP)</t>
+  </si>
+  <si>
+    <t>(PH-NXE)</t>
+  </si>
+  <si>
+    <t>10:56 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 26 minutes</t>
+  </si>
+  <si>
+    <t>9:34 AM</t>
+  </si>
+  <si>
+    <t>10:14 AM</t>
+  </si>
+  <si>
+    <t>12:08 PM</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>(INN)</t>
+  </si>
+  <si>
+    <t>2:39 PM</t>
+  </si>
+  <si>
+    <t>3:44 PM</t>
+  </si>
+  <si>
+    <t>5:13 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSG)</t>
+  </si>
+  <si>
+    <t>6:46 PM</t>
+  </si>
+  <si>
+    <t>9:32 PM</t>
+  </si>
+  <si>
+    <t>(OE-IMC)</t>
+  </si>
+  <si>
+    <t>9:54 PM</t>
+  </si>
+  <si>
+    <t>(OE-LNC)</t>
+  </si>
+  <si>
+    <t>12:02 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 25</t>
+  </si>
+  <si>
+    <t>3:50 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>5:08 AM</t>
+  </si>
+  <si>
+    <t>(SP-LWF)</t>
+  </si>
+  <si>
+    <t>5:45 AM</t>
+  </si>
+  <si>
+    <t>7:19 AM</t>
+  </si>
+  <si>
+    <t>(SP-RKM)</t>
+  </si>
+  <si>
+    <t>7:12 AM</t>
+  </si>
+  <si>
+    <t>7:32 AM</t>
+  </si>
+  <si>
+    <t>9:07 AM</t>
+  </si>
+  <si>
+    <t>12:46 PM</t>
+  </si>
+  <si>
+    <t>Memmingen</t>
+  </si>
+  <si>
+    <t>(FMM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Air </t>
+  </si>
+  <si>
+    <t>C25B</t>
+  </si>
+  <si>
+    <t>(D-COBH)</t>
+  </si>
+  <si>
+    <t>2:12 PM</t>
+  </si>
+  <si>
+    <t>2:38 PM</t>
+  </si>
+  <si>
+    <t>TWG202</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>(BHX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air-Taxi Europe </t>
+  </si>
+  <si>
+    <t>F406</t>
+  </si>
+  <si>
+    <t>(D-ICCC)</t>
+  </si>
+  <si>
+    <t>6:10 PM</t>
+  </si>
+  <si>
+    <t>(EI-HMY)</t>
+  </si>
+  <si>
+    <t>(EI-DLH)</t>
+  </si>
+  <si>
+    <t>9:58 PM</t>
+  </si>
+  <si>
+    <t>(SP-SPL)</t>
+  </si>
+  <si>
+    <t>(OE-IMD)</t>
+  </si>
+  <si>
+    <t>(EC-IXO)</t>
+  </si>
+  <si>
+    <t>10:33 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>(SP-ESE)</t>
+  </si>
+  <si>
+    <t>3:38 AM</t>
+  </si>
+  <si>
+    <t>4:53 AM</t>
+  </si>
+  <si>
+    <t>5:11 AM</t>
+  </si>
+  <si>
+    <t>5:44 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>E47037</t>
+  </si>
+  <si>
+    <t>8:28 AM</t>
+  </si>
+  <si>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>9:37 AM</t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>(CS-PHG)</t>
+  </si>
+  <si>
+    <t>10:24 AM</t>
+  </si>
+  <si>
+    <t>11:53 AM</t>
+  </si>
+  <si>
+    <t>(TS-INH)</t>
+  </si>
+  <si>
+    <t>11:36 AM</t>
+  </si>
+  <si>
+    <t>12:18 PM</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>(SP-LMD)</t>
+  </si>
+  <si>
+    <t>6:01 AM</t>
+  </si>
+  <si>
+    <t>6:22 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>7:31 AM</t>
+  </si>
+  <si>
+    <t>9:48 AM</t>
+  </si>
+  <si>
+    <t>10:55 AM</t>
+  </si>
+  <si>
+    <t>10:06 AM</t>
+  </si>
+  <si>
+    <t>10:42 AM</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>12:31 PM</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>LO9102</t>
+  </si>
+  <si>
+    <t>1:08 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet Story </t>
+  </si>
+  <si>
+    <t>(SP-DLB)</t>
+  </si>
+  <si>
+    <t>2:10 PM</t>
+  </si>
+  <si>
+    <t>2:36 PM</t>
+  </si>
+  <si>
+    <t>3:50 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAC Luftrettung </t>
+  </si>
+  <si>
+    <t>LJ60</t>
+  </si>
+  <si>
+    <t>(D-CURE)</t>
+  </si>
+  <si>
+    <t>4:00 PM</t>
+  </si>
+  <si>
+    <t>(SP-LRD)</t>
+  </si>
+  <si>
+    <t>4:01 PM</t>
+  </si>
+  <si>
+    <t>4:09 PM</t>
+  </si>
+  <si>
+    <t>4:24 PM</t>
+  </si>
+  <si>
+    <t>5:09 PM</t>
+  </si>
+  <si>
+    <t>4:51 PM</t>
+  </si>
+  <si>
+    <t>(EI-IFV)</t>
+  </si>
+  <si>
+    <t>(HA-LYO)</t>
+  </si>
+  <si>
+    <t>9:20 PM</t>
+  </si>
+  <si>
+    <t>9:24 PM</t>
+  </si>
+  <si>
+    <t>(9H-LOZ)</t>
+  </si>
+  <si>
+    <t>10:15 PM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>1:10 AM</t>
+  </si>
+  <si>
+    <t>1:56 AM</t>
+  </si>
+  <si>
+    <t>(SP-ESG)</t>
+  </si>
+  <si>
+    <t>1:44 AM</t>
+  </si>
+  <si>
+    <t>3:27 AM</t>
+  </si>
+  <si>
+    <t>(SP-ESF)</t>
+  </si>
+  <si>
+    <t>(SP-ENQ)</t>
+  </si>
+  <si>
+    <t>4:13 AM</t>
+  </si>
+  <si>
+    <t>(SP-ENU)</t>
+  </si>
+  <si>
+    <t>5:22 AM</t>
   </si>
   <si>
     <t>5:51 AM</t>
   </si>
   <si>
-    <t>(SP-LMH)</t>
-  </si>
-  <si>
-    <t>6:26 AM</t>
-  </si>
-  <si>
-    <t>6:43 AM</t>
-  </si>
-  <si>
-    <t>6:57 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 30 minutes</t>
-  </si>
-  <si>
-    <t>(HA-LTB)</t>
-  </si>
-  <si>
-    <t>7:42 AM</t>
-  </si>
-  <si>
-    <t>10:32 AM</t>
-  </si>
-  <si>
-    <t>10:35 AM</t>
-  </si>
-  <si>
-    <t>(SP-RSQ)</t>
-  </si>
-  <si>
-    <t>1 hours, 5 minutes</t>
-  </si>
-  <si>
-    <t>1:22 PM</t>
-  </si>
-  <si>
-    <t>1:39 PM</t>
-  </si>
-  <si>
-    <t>2:27 PM</t>
-  </si>
-  <si>
-    <t>(9H-WBR)</t>
-  </si>
-  <si>
-    <t>4:03 PM</t>
-  </si>
-  <si>
-    <t>(SP-LND)</t>
-  </si>
-  <si>
-    <t>3:19 PM</t>
-  </si>
-  <si>
-    <t>4:09 PM</t>
-  </si>
-  <si>
-    <t>LO6517</t>
-  </si>
-  <si>
-    <t>Phuket</t>
-  </si>
-  <si>
-    <t>(HKT)</t>
-  </si>
-  <si>
-    <t>4:29 PM</t>
-  </si>
-  <si>
-    <t>6:21 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 36 minutes</t>
-  </si>
-  <si>
-    <t>(EI-HMY)</t>
-  </si>
-  <si>
-    <t>0 hours, 52 minutes</t>
-  </si>
-  <si>
-    <t>7:04 PM</t>
-  </si>
-  <si>
-    <t>7:24 PM</t>
-  </si>
-  <si>
-    <t>(9H-LAX)</t>
-  </si>
-  <si>
-    <t>11:30 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 50 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryanair (Boeing Livery) </t>
-  </si>
-  <si>
-    <t>(EI-DCL)</t>
-  </si>
-  <si>
-    <t>11:20 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 20 minutes</t>
-  </si>
-  <si>
-    <t>10:37 PM</t>
-  </si>
-  <si>
-    <t>11:17 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 57 minutes</t>
-  </si>
-  <si>
-    <t>11:00 PM</t>
-  </si>
-  <si>
-    <t>DY8942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwegian (Helmer Hansen Livery) </t>
-  </si>
-  <si>
-    <t>(LN-NIB)</t>
-  </si>
-  <si>
-    <t>12:38 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 38 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>2:21 AM</t>
-  </si>
-  <si>
-    <t>2:36 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 50 minutes</t>
-  </si>
-  <si>
-    <t>(SP-ENQ)</t>
-  </si>
-  <si>
-    <t>4:52 AM</t>
-  </si>
-  <si>
-    <t>6:03 AM</t>
-  </si>
-  <si>
-    <t>(SP-LMF)</t>
-  </si>
-  <si>
-    <t>0 hours, 55 minutes</t>
-  </si>
-  <si>
-    <t>6:59 AM</t>
-  </si>
-  <si>
-    <t>7:14 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 22 minutes</t>
-  </si>
-  <si>
-    <t>A20N</t>
-  </si>
-  <si>
-    <t>(9HWBW)</t>
-  </si>
-  <si>
-    <t>1 hours, 28 minutes</t>
-  </si>
-  <si>
-    <t>8:38 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 58 minutes</t>
-  </si>
-  <si>
-    <t>9:20 AM</t>
-  </si>
-  <si>
-    <t>2 hours, 35 minutes</t>
-  </si>
-  <si>
-    <t>(HA-LWJ)</t>
-  </si>
-  <si>
-    <t>9:11 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 46 minutes</t>
-  </si>
-  <si>
     <t>(TC-SOI)</t>
   </si>
   <si>
-    <t>9:14 AM</t>
-  </si>
-  <si>
-    <t>8:57 AM</t>
-  </si>
-  <si>
-    <t>8:15 AM</t>
-  </si>
-  <si>
-    <t>(HA-LZO)</t>
-  </si>
-  <si>
-    <t>9:53 AM</t>
-  </si>
-  <si>
-    <t>9:15 AM</t>
+    <t>8:01 AM</t>
+  </si>
+  <si>
+    <t>8:07 AM</t>
   </si>
   <si>
     <t>RR970</t>
   </si>
   <si>
-    <t>9:37 AM</t>
-  </si>
-  <si>
-    <t>10:03 AM</t>
-  </si>
-  <si>
-    <t>Bolzano</t>
-  </si>
-  <si>
-    <t>(BZO)</t>
-  </si>
-  <si>
-    <t>(SP-MSG)</t>
-  </si>
-  <si>
-    <t>10:08 AM</t>
-  </si>
-  <si>
-    <t>12:17 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 52 minutes</t>
-  </si>
-  <si>
-    <t>(TC-TJV)</t>
-  </si>
-  <si>
-    <t>11:09 AM</t>
-  </si>
-  <si>
-    <t>12:49 PM</t>
-  </si>
-  <si>
-    <t>2:08 PM</t>
+    <t>8:23 AM</t>
+  </si>
+  <si>
+    <t>RR950</t>
+  </si>
+  <si>
+    <t>8:16 AM</t>
+  </si>
+  <si>
+    <t>9:59 AM</t>
+  </si>
+  <si>
+    <t>10:26 AM</t>
+  </si>
+  <si>
+    <t>10:37 AM</t>
+  </si>
+  <si>
+    <t>12:24 PM</t>
+  </si>
+  <si>
+    <t>12:38 PM</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKC)</t>
+  </si>
+  <si>
+    <t>1:10 PM</t>
   </si>
   <si>
     <t>1:59 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>2:59 PM</t>
+  </si>
+  <si>
+    <t>3:37 PM</t>
+  </si>
+  <si>
+    <t>4:04 PM</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M473"/>
+  <dimension ref="A1:M581"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -18183,32 +18519,32 @@
         <v>951</v>
       </c>
       <c r="C406" t="s" s="0">
-        <v>492</v>
+        <v>150</v>
       </c>
       <c r="D406" t="s" s="0">
-        <v>493</v>
+        <v>335</v>
       </c>
       <c r="E406" t="s" s="0">
-        <v>485</v>
+        <v>336</v>
       </c>
       <c r="F406" t="s" s="0">
-        <v>486</v>
+        <v>337</v>
       </c>
       <c r="G406" t="s" s="0">
-        <v>551</v>
+        <v>16</v>
       </c>
       <c r="H406" t="s" s="0">
-        <v>488</v>
+        <v>17</v>
       </c>
       <c r="I406" t="s" s="0">
-        <v>620</v>
+        <v>952</v>
       </c>
       <c r="J406" t="s" s="0">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K406" s="0"/>
       <c r="L406" t="s" s="0">
-        <v>395</v>
+        <v>214</v>
       </c>
       <c r="M406" s="0"/>
     </row>
@@ -18220,32 +18556,32 @@
         <v>951</v>
       </c>
       <c r="C407" t="s" s="0">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="D407" t="s" s="0">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="E407" t="s" s="0">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="F407" t="s" s="0">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="G407" t="s" s="0">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H407" t="s" s="0">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I407" t="s" s="0">
-        <v>254</v>
+        <v>844</v>
       </c>
       <c r="J407" t="s" s="0">
-        <v>816</v>
+        <v>954</v>
       </c>
       <c r="K407" s="0"/>
       <c r="L407" t="s" s="0">
-        <v>340</v>
+        <v>955</v>
       </c>
       <c r="M407" s="0"/>
     </row>
@@ -18257,32 +18593,32 @@
         <v>951</v>
       </c>
       <c r="C408" t="s" s="0">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="D408" t="s" s="0">
-        <v>55</v>
+        <v>956</v>
       </c>
       <c r="E408" t="s" s="0">
-        <v>953</v>
+        <v>23</v>
       </c>
       <c r="F408" t="s" s="0">
-        <v>954</v>
+        <v>24</v>
       </c>
       <c r="G408" t="s" s="0">
-        <v>64</v>
+        <v>436</v>
       </c>
       <c r="H408" t="s" s="0">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I408" t="s" s="0">
-        <v>897</v>
+        <v>957</v>
       </c>
       <c r="J408" t="s" s="0">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="K408" s="0"/>
       <c r="L408" t="s" s="0">
-        <v>691</v>
+        <v>959</v>
       </c>
       <c r="M408" s="0"/>
     </row>
@@ -18294,32 +18630,32 @@
         <v>951</v>
       </c>
       <c r="C409" t="s" s="0">
-        <v>398</v>
+        <v>166</v>
       </c>
       <c r="D409" t="s" s="0">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E409" t="s" s="0">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="F409" t="s" s="0">
-        <v>176</v>
+        <v>362</v>
       </c>
       <c r="G409" t="s" s="0">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="H409" t="s" s="0">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I409" t="s" s="0">
-        <v>956</v>
+        <v>159</v>
       </c>
       <c r="J409" t="s" s="0">
-        <v>262</v>
+        <v>960</v>
       </c>
       <c r="K409" s="0"/>
       <c r="L409" t="s" s="0">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="M409" s="0"/>
     </row>
@@ -18331,32 +18667,32 @@
         <v>951</v>
       </c>
       <c r="C410" t="s" s="0">
-        <v>268</v>
+        <v>447</v>
       </c>
       <c r="D410" t="s" s="0">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="E410" t="s" s="0">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F410" t="s" s="0">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="G410" t="s" s="0">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="H410" t="s" s="0">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I410" t="s" s="0">
-        <v>863</v>
+        <v>961</v>
       </c>
       <c r="J410" t="s" s="0">
-        <v>957</v>
+        <v>363</v>
       </c>
       <c r="K410" s="0"/>
       <c r="L410" t="s" s="0">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="M410" s="0"/>
     </row>
@@ -18368,32 +18704,32 @@
         <v>951</v>
       </c>
       <c r="C411" t="s" s="0">
-        <v>405</v>
+        <v>196</v>
       </c>
       <c r="D411" t="s" s="0">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="E411" t="s" s="0">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F411" t="s" s="0">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G411" t="s" s="0">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="H411" t="s" s="0">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="I411" t="s" s="0">
-        <v>817</v>
+        <v>465</v>
       </c>
       <c r="J411" t="s" s="0">
-        <v>781</v>
+        <v>962</v>
       </c>
       <c r="K411" s="0"/>
       <c r="L411" t="s" s="0">
-        <v>231</v>
+        <v>940</v>
       </c>
       <c r="M411" s="0"/>
     </row>
@@ -18405,32 +18741,32 @@
         <v>951</v>
       </c>
       <c r="C412" t="s" s="0">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="D412" t="s" s="0">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="E412" t="s" s="0">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="F412" t="s" s="0">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="G412" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H412" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I412" t="s" s="0">
-        <v>729</v>
+        <v>963</v>
       </c>
       <c r="J412" t="s" s="0">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="K412" s="0"/>
       <c r="L412" t="s" s="0">
-        <v>284</v>
+        <v>710</v>
       </c>
       <c r="M412" s="0"/>
     </row>
@@ -18442,10 +18778,10 @@
         <v>951</v>
       </c>
       <c r="C413" t="s" s="0">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D413" t="s" s="0">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="E413" t="s" s="0">
         <v>168</v>
@@ -18454,20 +18790,20 @@
         <v>169</v>
       </c>
       <c r="G413" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H413" t="s" s="0">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I413" t="s" s="0">
-        <v>796</v>
+        <v>91</v>
       </c>
       <c r="J413" t="s" s="0">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="K413" s="0"/>
       <c r="L413" t="s" s="0">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="M413" s="0"/>
     </row>
@@ -18479,32 +18815,32 @@
         <v>951</v>
       </c>
       <c r="C414" t="s" s="0">
-        <v>562</v>
+        <v>204</v>
       </c>
       <c r="D414" t="s" s="0">
-        <v>693</v>
+        <v>55</v>
       </c>
       <c r="E414" t="s" s="0">
-        <v>694</v>
+        <v>966</v>
       </c>
       <c r="F414" t="s" s="0">
-        <v>695</v>
+        <v>967</v>
       </c>
       <c r="G414" t="s" s="0">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H414" t="s" s="0">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I414" t="s" s="0">
-        <v>623</v>
+        <v>506</v>
       </c>
       <c r="J414" t="s" s="0">
-        <v>783</v>
+        <v>968</v>
       </c>
       <c r="K414" s="0"/>
       <c r="L414" t="s" s="0">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M414" s="0"/>
     </row>
@@ -18516,32 +18852,32 @@
         <v>951</v>
       </c>
       <c r="C415" t="s" s="0">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="D415" t="s" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="E415" t="s" s="0">
-        <v>411</v>
+        <v>222</v>
       </c>
       <c r="F415" t="s" s="0">
-        <v>412</v>
+        <v>234</v>
       </c>
       <c r="G415" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H415" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I415" t="s" s="0">
-        <v>159</v>
+        <v>969</v>
       </c>
       <c r="J415" t="s" s="0">
-        <v>566</v>
+        <v>970</v>
       </c>
       <c r="K415" s="0"/>
       <c r="L415" t="s" s="0">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="M415" s="0"/>
     </row>
@@ -18553,32 +18889,32 @@
         <v>951</v>
       </c>
       <c r="C416" t="s" s="0">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="D416" t="s" s="0">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="E416" t="s" s="0">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="F416" t="s" s="0">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="G416" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H416" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I416" t="s" s="0">
-        <v>784</v>
+        <v>863</v>
       </c>
       <c r="J416" t="s" s="0">
-        <v>628</v>
+        <v>208</v>
       </c>
       <c r="K416" s="0"/>
       <c r="L416" t="s" s="0">
-        <v>189</v>
+        <v>738</v>
       </c>
       <c r="M416" s="0"/>
     </row>
@@ -18590,32 +18926,32 @@
         <v>951</v>
       </c>
       <c r="C417" t="s" s="0">
-        <v>566</v>
+        <v>220</v>
       </c>
       <c r="D417" t="s" s="0">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="E417" t="s" s="0">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="F417" t="s" s="0">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="G417" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H417" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I417" t="s" s="0">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="J417" t="s" s="0">
-        <v>962</v>
+        <v>173</v>
       </c>
       <c r="K417" s="0"/>
       <c r="L417" t="s" s="0">
-        <v>940</v>
+        <v>440</v>
       </c>
       <c r="M417" s="0"/>
     </row>
@@ -18627,10 +18963,10 @@
         <v>951</v>
       </c>
       <c r="C418" t="s" s="0">
-        <v>53</v>
+        <v>383</v>
       </c>
       <c r="D418" t="s" s="0">
-        <v>699</v>
+        <v>384</v>
       </c>
       <c r="E418" t="s" s="0">
         <v>246</v>
@@ -18639,20 +18975,20 @@
         <v>247</v>
       </c>
       <c r="G418" t="s" s="0">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="H418" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I418" t="s" s="0">
-        <v>818</v>
+        <v>386</v>
       </c>
       <c r="J418" t="s" s="0">
-        <v>569</v>
+        <v>218</v>
       </c>
       <c r="K418" s="0"/>
       <c r="L418" t="s" s="0">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="M418" s="0"/>
     </row>
@@ -18664,32 +19000,32 @@
         <v>951</v>
       </c>
       <c r="C419" t="s" s="0">
-        <v>69</v>
+        <v>389</v>
       </c>
       <c r="D419" t="s" s="0">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="E419" t="s" s="0">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="F419" t="s" s="0">
-        <v>72</v>
+        <v>392</v>
       </c>
       <c r="G419" t="s" s="0">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H419" t="s" s="0">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I419" t="s" s="0">
-        <v>75</v>
+        <v>972</v>
       </c>
       <c r="J419" t="s" s="0">
-        <v>635</v>
+        <v>973</v>
       </c>
       <c r="K419" s="0"/>
       <c r="L419" t="s" s="0">
-        <v>404</v>
+        <v>974</v>
       </c>
       <c r="M419" s="0"/>
     </row>
@@ -18701,32 +19037,32 @@
         <v>951</v>
       </c>
       <c r="C420" t="s" s="0">
-        <v>702</v>
+        <v>852</v>
       </c>
       <c r="D420" t="s" s="0">
-        <v>703</v>
+        <v>853</v>
       </c>
       <c r="E420" t="s" s="0">
-        <v>704</v>
+        <v>854</v>
       </c>
       <c r="F420" t="s" s="0">
-        <v>705</v>
+        <v>855</v>
       </c>
       <c r="G420" t="s" s="0">
-        <v>83</v>
+        <v>547</v>
       </c>
       <c r="H420" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I420" t="s" s="0">
-        <v>355</v>
+        <v>975</v>
       </c>
       <c r="J420" t="s" s="0">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="K420" s="0"/>
       <c r="L420" t="s" s="0">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="M420" s="0"/>
     </row>
@@ -18738,32 +19074,32 @@
         <v>951</v>
       </c>
       <c r="C421" t="s" s="0">
-        <v>82</v>
+        <v>977</v>
       </c>
       <c r="D421" t="s" s="0">
-        <v>708</v>
+        <v>55</v>
       </c>
       <c r="E421" t="s" s="0">
-        <v>507</v>
+        <v>62</v>
       </c>
       <c r="F421" t="s" s="0">
-        <v>508</v>
+        <v>63</v>
       </c>
       <c r="G421" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H421" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I421" t="s" s="0">
-        <v>91</v>
+        <v>978</v>
       </c>
       <c r="J421" t="s" s="0">
-        <v>87</v>
+        <v>979</v>
       </c>
       <c r="K421" s="0"/>
       <c r="L421" t="s" s="0">
-        <v>125</v>
+        <v>980</v>
       </c>
       <c r="M421" s="0"/>
     </row>
@@ -18772,35 +19108,35 @@
         <v>421.0</v>
       </c>
       <c r="B422" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C422" t="s" s="0">
-        <v>87</v>
+        <v>982</v>
       </c>
       <c r="D422" t="s" s="0">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="E422" t="s" s="0">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="F422" t="s" s="0">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="G422" t="s" s="0">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="H422" t="s" s="0">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="I422" t="s" s="0">
-        <v>817</v>
+        <v>983</v>
       </c>
       <c r="J422" t="s" s="0">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="K422" s="0"/>
       <c r="L422" t="s" s="0">
-        <v>101</v>
+        <v>985</v>
       </c>
       <c r="M422" s="0"/>
     </row>
@@ -18809,35 +19145,35 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C423" t="s" s="0">
-        <v>432</v>
+        <v>239</v>
       </c>
       <c r="D423" t="s" s="0">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="E423" t="s" s="0">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="F423" t="s" s="0">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="G423" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H423" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I423" t="s" s="0">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="J423" t="s" s="0">
-        <v>347</v>
+        <v>987</v>
       </c>
       <c r="K423" s="0"/>
       <c r="L423" t="s" s="0">
-        <v>966</v>
+        <v>450</v>
       </c>
       <c r="M423" s="0"/>
     </row>
@@ -18846,35 +19182,35 @@
         <v>423.0</v>
       </c>
       <c r="B424" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C424" t="s" s="0">
-        <v>441</v>
+        <v>988</v>
       </c>
       <c r="D424" t="s" s="0">
-        <v>442</v>
+        <v>55</v>
       </c>
       <c r="E424" t="s" s="0">
-        <v>443</v>
+        <v>62</v>
       </c>
       <c r="F424" t="s" s="0">
-        <v>444</v>
+        <v>63</v>
       </c>
       <c r="G424" t="s" s="0">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="H424" t="s" s="0">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I424" t="s" s="0">
-        <v>863</v>
+        <v>989</v>
       </c>
       <c r="J424" t="s" s="0">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="K424" s="0"/>
       <c r="L424" t="s" s="0">
-        <v>942</v>
+        <v>237</v>
       </c>
       <c r="M424" s="0"/>
     </row>
@@ -18883,35 +19219,35 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C425" t="s" s="0">
-        <v>334</v>
+        <v>991</v>
       </c>
       <c r="D425" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E425" t="s" s="0">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="F425" t="s" s="0">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="G425" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H425" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I425" t="s" s="0">
-        <v>901</v>
+        <v>992</v>
       </c>
       <c r="J425" t="s" s="0">
-        <v>968</v>
+        <v>993</v>
       </c>
       <c r="K425" s="0"/>
       <c r="L425" t="s" s="0">
-        <v>165</v>
+        <v>927</v>
       </c>
       <c r="M425" s="0"/>
     </row>
@@ -18920,35 +19256,35 @@
         <v>425.0</v>
       </c>
       <c r="B426" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C426" t="s" s="0">
-        <v>161</v>
+        <v>994</v>
       </c>
       <c r="D426" t="s" s="0">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="E426" t="s" s="0">
-        <v>23</v>
+        <v>995</v>
       </c>
       <c r="F426" t="s" s="0">
-        <v>24</v>
+        <v>996</v>
       </c>
       <c r="G426" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H426" t="s" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I426" t="s" s="0">
-        <v>163</v>
+        <v>997</v>
       </c>
       <c r="J426" t="s" s="0">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="K426" s="0"/>
       <c r="L426" t="s" s="0">
-        <v>106</v>
+        <v>999</v>
       </c>
       <c r="M426" s="0"/>
     </row>
@@ -18957,35 +19293,35 @@
         <v>426.0</v>
       </c>
       <c r="B427" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C427" t="s" s="0">
-        <v>713</v>
+        <v>250</v>
       </c>
       <c r="D427" t="s" s="0">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E427" t="s" s="0">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="F427" t="s" s="0">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="G427" t="s" s="0">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H427" t="s" s="0">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="I427" t="s" s="0">
-        <v>796</v>
+        <v>254</v>
       </c>
       <c r="J427" t="s" s="0">
-        <v>714</v>
+        <v>1000</v>
       </c>
       <c r="K427" s="0"/>
       <c r="L427" t="s" s="0">
-        <v>467</v>
+        <v>1001</v>
       </c>
       <c r="M427" s="0"/>
     </row>
@@ -18994,35 +19330,35 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C428" t="s" s="0">
-        <v>177</v>
+        <v>398</v>
       </c>
       <c r="D428" t="s" s="0">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="E428" t="s" s="0">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="F428" t="s" s="0">
-        <v>454</v>
+        <v>176</v>
       </c>
       <c r="G428" t="s" s="0">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="H428" t="s" s="0">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="I428" t="s" s="0">
-        <v>970</v>
+        <v>719</v>
       </c>
       <c r="J428" t="s" s="0">
-        <v>971</v>
+        <v>555</v>
       </c>
       <c r="K428" s="0"/>
       <c r="L428" t="s" s="0">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="M428" s="0"/>
     </row>
@@ -19031,35 +19367,35 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C429" t="s" s="0">
-        <v>447</v>
+        <v>268</v>
       </c>
       <c r="D429" t="s" s="0">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="E429" t="s" s="0">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="F429" t="s" s="0">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="G429" t="s" s="0">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="H429" t="s" s="0">
-        <v>437</v>
+        <v>17</v>
       </c>
       <c r="I429" t="s" s="0">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="J429" t="s" s="0">
-        <v>973</v>
+        <v>273</v>
       </c>
       <c r="K429" s="0"/>
       <c r="L429" t="s" s="0">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="M429" s="0"/>
     </row>
@@ -19068,35 +19404,35 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C430" t="s" s="0">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="D430" t="s" s="0">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="E430" t="s" s="0">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="F430" t="s" s="0">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="G430" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H430" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I430" t="s" s="0">
-        <v>817</v>
+        <v>1002</v>
       </c>
       <c r="J430" t="s" s="0">
-        <v>974</v>
+        <v>281</v>
       </c>
       <c r="K430" s="0"/>
       <c r="L430" t="s" s="0">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M430" s="0"/>
     </row>
@@ -19105,35 +19441,35 @@
         <v>430.0</v>
       </c>
       <c r="B431" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C431" t="s" s="0">
-        <v>364</v>
+        <v>777</v>
       </c>
       <c r="D431" t="s" s="0">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="E431" t="s" s="0">
-        <v>976</v>
+        <v>23</v>
       </c>
       <c r="F431" t="s" s="0">
-        <v>977</v>
+        <v>24</v>
       </c>
       <c r="G431" t="s" s="0">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="H431" t="s" s="0">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="I431" t="s" s="0">
-        <v>312</v>
+        <v>957</v>
       </c>
       <c r="J431" t="s" s="0">
-        <v>880</v>
+        <v>1004</v>
       </c>
       <c r="K431" s="0"/>
       <c r="L431" t="s" s="0">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="M431" s="0"/>
     </row>
@@ -19142,19 +19478,19 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C432" t="s" s="0">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="D432" t="s" s="0">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="E432" t="s" s="0">
-        <v>727</v>
+        <v>168</v>
       </c>
       <c r="F432" t="s" s="0">
-        <v>728</v>
+        <v>169</v>
       </c>
       <c r="G432" t="s" s="0">
         <v>16</v>
@@ -19163,14 +19499,14 @@
         <v>17</v>
       </c>
       <c r="I432" t="s" s="0">
-        <v>729</v>
+        <v>863</v>
       </c>
       <c r="J432" t="s" s="0">
-        <v>978</v>
+        <v>414</v>
       </c>
       <c r="K432" s="0"/>
       <c r="L432" t="s" s="0">
-        <v>165</v>
+        <v>691</v>
       </c>
       <c r="M432" s="0"/>
     </row>
@@ -19179,35 +19515,35 @@
         <v>432.0</v>
       </c>
       <c r="B433" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C433" t="s" s="0">
-        <v>537</v>
+        <v>12</v>
       </c>
       <c r="D433" t="s" s="0">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="E433" t="s" s="0">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="F433" t="s" s="0">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="G433" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H433" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I433" t="s" s="0">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="J433" t="s" s="0">
-        <v>979</v>
+        <v>1006</v>
       </c>
       <c r="K433" s="0"/>
       <c r="L433" t="s" s="0">
-        <v>980</v>
+        <v>328</v>
       </c>
       <c r="M433" s="0"/>
     </row>
@@ -19216,35 +19552,35 @@
         <v>433.0</v>
       </c>
       <c r="B434" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C434" t="s" s="0">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="D434" t="s" s="0">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="E434" t="s" s="0">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="F434" t="s" s="0">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="G434" t="s" s="0">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="H434" t="s" s="0">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="I434" t="s" s="0">
-        <v>202</v>
+        <v>969</v>
       </c>
       <c r="J434" t="s" s="0">
-        <v>915</v>
+        <v>1007</v>
       </c>
       <c r="K434" s="0"/>
       <c r="L434" t="s" s="0">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="M434" s="0"/>
     </row>
@@ -19253,35 +19589,35 @@
         <v>434.0</v>
       </c>
       <c r="B435" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C435" t="s" s="0">
-        <v>733</v>
+        <v>30</v>
       </c>
       <c r="D435" t="s" s="0">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="E435" t="s" s="0">
-        <v>371</v>
+        <v>32</v>
       </c>
       <c r="F435" t="s" s="0">
-        <v>372</v>
+        <v>33</v>
       </c>
       <c r="G435" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H435" t="s" s="0">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I435" t="s" s="0">
-        <v>981</v>
+        <v>901</v>
       </c>
       <c r="J435" t="s" s="0">
-        <v>884</v>
+        <v>416</v>
       </c>
       <c r="K435" s="0"/>
       <c r="L435" t="s" s="0">
-        <v>982</v>
+        <v>328</v>
       </c>
       <c r="M435" s="0"/>
     </row>
@@ -19290,35 +19626,35 @@
         <v>435.0</v>
       </c>
       <c r="B436" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C436" t="s" s="0">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="D436" t="s" s="0">
-        <v>469</v>
+        <v>1008</v>
       </c>
       <c r="E436" t="s" s="0">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="F436" t="s" s="0">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="G436" t="s" s="0">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H436" t="s" s="0">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I436" t="s" s="0">
-        <v>961</v>
+        <v>1009</v>
       </c>
       <c r="J436" t="s" s="0">
-        <v>983</v>
+        <v>1010</v>
       </c>
       <c r="K436" s="0"/>
       <c r="L436" t="s" s="0">
-        <v>256</v>
+        <v>1011</v>
       </c>
       <c r="M436" s="0"/>
     </row>
@@ -19327,35 +19663,35 @@
         <v>436.0</v>
       </c>
       <c r="B437" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C437" t="s" s="0">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="D437" t="s" s="0">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="E437" t="s" s="0">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="F437" t="s" s="0">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G437" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H437" t="s" s="0">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="I437" t="s" s="0">
-        <v>796</v>
+        <v>91</v>
       </c>
       <c r="J437" t="s" s="0">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="K437" s="0"/>
       <c r="L437" t="s" s="0">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="M437" s="0"/>
     </row>
@@ -19364,35 +19700,35 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C438" t="s" s="0">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="D438" t="s" s="0">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="E438" t="s" s="0">
-        <v>391</v>
+        <v>186</v>
       </c>
       <c r="F438" t="s" s="0">
-        <v>392</v>
+        <v>187</v>
       </c>
       <c r="G438" t="s" s="0">
-        <v>475</v>
+        <v>51</v>
       </c>
       <c r="H438" t="s" s="0">
-        <v>476</v>
+        <v>43</v>
       </c>
       <c r="I438" t="s" s="0">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="J438" t="s" s="0">
-        <v>885</v>
+        <v>1013</v>
       </c>
       <c r="K438" s="0"/>
       <c r="L438" t="s" s="0">
-        <v>125</v>
+        <v>395</v>
       </c>
       <c r="M438" s="0"/>
     </row>
@@ -19401,35 +19737,35 @@
         <v>438.0</v>
       </c>
       <c r="B439" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C439" t="s" s="0">
-        <v>232</v>
+        <v>1013</v>
       </c>
       <c r="D439" t="s" s="0">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="E439" t="s" s="0">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="F439" t="s" s="0">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="G439" t="s" s="0">
-        <v>740</v>
+        <v>1014</v>
       </c>
       <c r="H439" t="s" s="0">
-        <v>122</v>
+        <v>1015</v>
       </c>
       <c r="I439" t="s" s="0">
-        <v>985</v>
+        <v>1016</v>
       </c>
       <c r="J439" t="s" s="0">
-        <v>986</v>
+        <v>292</v>
       </c>
       <c r="K439" s="0"/>
       <c r="L439" t="s" s="0">
-        <v>987</v>
+        <v>467</v>
       </c>
       <c r="M439" s="0"/>
     </row>
@@ -19438,35 +19774,35 @@
         <v>439.0</v>
       </c>
       <c r="B440" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C440" t="s" s="0">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="D440" t="s" s="0">
         <v>55</v>
       </c>
       <c r="E440" t="s" s="0">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="F440" t="s" s="0">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="G440" t="s" s="0">
-        <v>988</v>
+        <v>200</v>
       </c>
       <c r="H440" t="s" s="0">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="I440" t="s" s="0">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="J440" t="s" s="0">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="K440" s="0"/>
       <c r="L440" t="s" s="0">
-        <v>991</v>
+        <v>1019</v>
       </c>
       <c r="M440" s="0"/>
     </row>
@@ -19475,13 +19811,13 @@
         <v>440.0</v>
       </c>
       <c r="B441" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C441" t="s" s="0">
-        <v>742</v>
+        <v>69</v>
       </c>
       <c r="D441" t="s" s="0">
-        <v>743</v>
+        <v>70</v>
       </c>
       <c r="E441" t="s" s="0">
         <v>71</v>
@@ -19490,20 +19826,20 @@
         <v>72</v>
       </c>
       <c r="G441" t="s" s="0">
-        <v>547</v>
+        <v>73</v>
       </c>
       <c r="H441" t="s" s="0">
         <v>74</v>
       </c>
       <c r="I441" t="s" s="0">
-        <v>744</v>
+        <v>75</v>
       </c>
       <c r="J441" t="s" s="0">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="K441" s="0"/>
       <c r="L441" t="s" s="0">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="M441" s="0"/>
     </row>
@@ -19512,35 +19848,35 @@
         <v>441.0</v>
       </c>
       <c r="B442" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C442" t="s" s="0">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="D442" t="s" s="0">
-        <v>484</v>
+        <v>55</v>
       </c>
       <c r="E442" t="s" s="0">
-        <v>485</v>
+        <v>186</v>
       </c>
       <c r="F442" t="s" s="0">
-        <v>486</v>
+        <v>187</v>
       </c>
       <c r="G442" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H442" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I442" t="s" s="0">
-        <v>886</v>
+        <v>355</v>
       </c>
       <c r="J442" t="s" s="0">
-        <v>993</v>
+        <v>1021</v>
       </c>
       <c r="K442" s="0"/>
       <c r="L442" t="s" s="0">
-        <v>994</v>
+        <v>440</v>
       </c>
       <c r="M442" s="0"/>
     </row>
@@ -19549,35 +19885,35 @@
         <v>442.0</v>
       </c>
       <c r="B443" t="s" s="0">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="C443" t="s" s="0">
-        <v>995</v>
+        <v>319</v>
       </c>
       <c r="D443" t="s" s="0">
-        <v>996</v>
+        <v>320</v>
       </c>
       <c r="E443" t="s" s="0">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="F443" t="s" s="0">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="G443" t="s" s="0">
-        <v>997</v>
+        <v>772</v>
       </c>
       <c r="H443" t="s" s="0">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="I443" t="s" s="0">
-        <v>998</v>
+        <v>773</v>
       </c>
       <c r="J443" t="s" s="0">
-        <v>999</v>
+        <v>586</v>
       </c>
       <c r="K443" s="0"/>
       <c r="L443" t="s" s="0">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="M443" s="0"/>
     </row>
@@ -19586,35 +19922,35 @@
         <v>443.0</v>
       </c>
       <c r="B444" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C444" t="s" s="0">
-        <v>749</v>
+        <v>425</v>
       </c>
       <c r="D444" t="s" s="0">
-        <v>750</v>
+        <v>426</v>
       </c>
       <c r="E444" t="s" s="0">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="F444" t="s" s="0">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="G444" t="s" s="0">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H444" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I444" t="s" s="0">
-        <v>506</v>
+        <v>159</v>
       </c>
       <c r="J444" t="s" s="0">
-        <v>1002</v>
+        <v>647</v>
       </c>
       <c r="K444" s="0"/>
       <c r="L444" t="s" s="0">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="M444" s="0"/>
     </row>
@@ -19623,35 +19959,35 @@
         <v>444.0</v>
       </c>
       <c r="B445" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C445" t="s" s="0">
-        <v>753</v>
+        <v>324</v>
       </c>
       <c r="D445" t="s" s="0">
-        <v>754</v>
+        <v>216</v>
       </c>
       <c r="E445" t="s" s="0">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F445" t="s" s="0">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G445" t="s" s="0">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H445" t="s" s="0">
         <v>65</v>
       </c>
       <c r="I445" t="s" s="0">
-        <v>355</v>
+        <v>91</v>
       </c>
       <c r="J445" t="s" s="0">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="K445" s="0"/>
       <c r="L445" t="s" s="0">
-        <v>865</v>
+        <v>328</v>
       </c>
       <c r="M445" s="0"/>
     </row>
@@ -19660,35 +19996,35 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C446" t="s" s="0">
-        <v>756</v>
+        <v>441</v>
       </c>
       <c r="D446" t="s" s="0">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="E446" t="s" s="0">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="F446" t="s" s="0">
-        <v>229</v>
+        <v>444</v>
       </c>
       <c r="G446" t="s" s="0">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="H446" t="s" s="0">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I446" t="s" s="0">
-        <v>259</v>
+        <v>952</v>
       </c>
       <c r="J446" t="s" s="0">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="K446" s="0"/>
       <c r="L446" t="s" s="0">
-        <v>1004</v>
+        <v>106</v>
       </c>
       <c r="M446" s="0"/>
     </row>
@@ -19697,35 +20033,35 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C447" t="s" s="0">
-        <v>495</v>
+        <v>904</v>
       </c>
       <c r="D447" t="s" s="0">
-        <v>758</v>
+        <v>55</v>
       </c>
       <c r="E447" t="s" s="0">
-        <v>228</v>
+        <v>1023</v>
       </c>
       <c r="F447" t="s" s="0">
-        <v>229</v>
+        <v>1024</v>
       </c>
       <c r="G447" t="s" s="0">
-        <v>83</v>
+        <v>577</v>
       </c>
       <c r="H447" t="s" s="0">
-        <v>65</v>
+        <v>578</v>
       </c>
       <c r="I447" t="s" s="0">
-        <v>1005</v>
+        <v>579</v>
       </c>
       <c r="J447" t="s" s="0">
-        <v>622</v>
+        <v>1025</v>
       </c>
       <c r="K447" s="0"/>
       <c r="L447" t="s" s="0">
-        <v>1004</v>
+        <v>710</v>
       </c>
       <c r="M447" s="0"/>
     </row>
@@ -19734,35 +20070,35 @@
         <v>447.0</v>
       </c>
       <c r="B448" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C448" t="s" s="0">
-        <v>760</v>
+        <v>161</v>
       </c>
       <c r="D448" t="s" s="0">
-        <v>761</v>
+        <v>956</v>
       </c>
       <c r="E448" t="s" s="0">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="F448" t="s" s="0">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="G448" t="s" s="0">
-        <v>83</v>
+        <v>436</v>
       </c>
       <c r="H448" t="s" s="0">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="I448" t="s" s="0">
-        <v>84</v>
+        <v>957</v>
       </c>
       <c r="J448" t="s" s="0">
-        <v>1006</v>
+        <v>658</v>
       </c>
       <c r="K448" s="0"/>
       <c r="L448" t="s" s="0">
-        <v>994</v>
+        <v>189</v>
       </c>
       <c r="M448" s="0"/>
     </row>
@@ -19771,35 +20107,35 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C449" t="s" s="0">
-        <v>763</v>
+        <v>447</v>
       </c>
       <c r="D449" t="s" s="0">
-        <v>764</v>
+        <v>179</v>
       </c>
       <c r="E449" t="s" s="0">
-        <v>765</v>
+        <v>175</v>
       </c>
       <c r="F449" t="s" s="0">
-        <v>766</v>
+        <v>176</v>
       </c>
       <c r="G449" t="s" s="0">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="H449" t="s" s="0">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="I449" t="s" s="0">
-        <v>248</v>
+        <v>588</v>
       </c>
       <c r="J449" t="s" s="0">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="K449" s="0"/>
       <c r="L449" t="s" s="0">
-        <v>948</v>
+        <v>106</v>
       </c>
       <c r="M449" s="0"/>
     </row>
@@ -19808,35 +20144,35 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C450" t="s" s="0">
-        <v>250</v>
+        <v>451</v>
       </c>
       <c r="D450" t="s" s="0">
-        <v>251</v>
+        <v>452</v>
       </c>
       <c r="E450" t="s" s="0">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="F450" t="s" s="0">
-        <v>253</v>
+        <v>454</v>
       </c>
       <c r="G450" t="s" s="0">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H450" t="s" s="0">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I450" t="s" s="0">
-        <v>254</v>
+        <v>1002</v>
       </c>
       <c r="J450" t="s" s="0">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="K450" s="0"/>
       <c r="L450" t="s" s="0">
-        <v>666</v>
+        <v>243</v>
       </c>
       <c r="M450" s="0"/>
     </row>
@@ -19845,35 +20181,35 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C451" t="s" s="0">
-        <v>769</v>
+        <v>184</v>
       </c>
       <c r="D451" t="s" s="0">
-        <v>770</v>
+        <v>456</v>
       </c>
       <c r="E451" t="s" s="0">
-        <v>40</v>
+        <v>457</v>
       </c>
       <c r="F451" t="s" s="0">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="G451" t="s" s="0">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="H451" t="s" s="0">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="I451" t="s" s="0">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="J451" t="s" s="0">
-        <v>499</v>
+        <v>725</v>
       </c>
       <c r="K451" s="0"/>
       <c r="L451" t="s" s="0">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="M451" s="0"/>
     </row>
@@ -19882,35 +20218,35 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C452" t="s" s="0">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="D452" t="s" s="0">
-        <v>399</v>
+        <v>461</v>
       </c>
       <c r="E452" t="s" s="0">
-        <v>175</v>
+        <v>727</v>
       </c>
       <c r="F452" t="s" s="0">
-        <v>176</v>
+        <v>728</v>
       </c>
       <c r="G452" t="s" s="0">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="H452" t="s" s="0">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="I452" t="s" s="0">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J452" t="s" s="0">
-        <v>562</v>
+        <v>908</v>
       </c>
       <c r="K452" s="0"/>
       <c r="L452" t="s" s="0">
-        <v>1009</v>
+        <v>382</v>
       </c>
       <c r="M452" s="0"/>
     </row>
@@ -19919,35 +20255,35 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C453" t="s" s="0">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="D453" t="s" s="0">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="E453" t="s" s="0">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F453" t="s" s="0">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="G453" t="s" s="0">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="H453" t="s" s="0">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="I453" t="s" s="0">
-        <v>91</v>
+        <v>732</v>
       </c>
       <c r="J453" t="s" s="0">
-        <v>1010</v>
+        <v>1027</v>
       </c>
       <c r="K453" s="0"/>
       <c r="L453" t="s" s="0">
-        <v>522</v>
+        <v>284</v>
       </c>
       <c r="M453" s="0"/>
     </row>
@@ -19956,35 +20292,35 @@
         <v>453.0</v>
       </c>
       <c r="B454" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C454" t="s" s="0">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="D454" t="s" s="0">
-        <v>272</v>
+        <v>380</v>
       </c>
       <c r="E454" t="s" s="0">
         <v>222</v>
       </c>
       <c r="F454" t="s" s="0">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G454" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H454" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I454" t="s" s="0">
-        <v>863</v>
+        <v>91</v>
       </c>
       <c r="J454" t="s" s="0">
-        <v>1011</v>
+        <v>883</v>
       </c>
       <c r="K454" s="0"/>
       <c r="L454" t="s" s="0">
-        <v>20</v>
+        <v>940</v>
       </c>
       <c r="M454" s="0"/>
     </row>
@@ -19993,13 +20329,13 @@
         <v>454.0</v>
       </c>
       <c r="B455" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C455" t="s" s="0">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="D455" t="s" s="0">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="E455" t="s" s="0">
         <v>168</v>
@@ -20014,14 +20350,14 @@
         <v>65</v>
       </c>
       <c r="I455" t="s" s="0">
-        <v>965</v>
+        <v>1028</v>
       </c>
       <c r="J455" t="s" s="0">
-        <v>36</v>
+        <v>1029</v>
       </c>
       <c r="K455" s="0"/>
       <c r="L455" t="s" s="0">
-        <v>948</v>
+        <v>318</v>
       </c>
       <c r="M455" s="0"/>
     </row>
@@ -20030,35 +20366,35 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C456" t="s" s="0">
-        <v>405</v>
+        <v>215</v>
       </c>
       <c r="D456" t="s" s="0">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="E456" t="s" s="0">
-        <v>96</v>
+        <v>470</v>
       </c>
       <c r="F456" t="s" s="0">
-        <v>270</v>
+        <v>471</v>
       </c>
       <c r="G456" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H456" t="s" s="0">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I456" t="s" s="0">
-        <v>961</v>
+        <v>159</v>
       </c>
       <c r="J456" t="s" s="0">
-        <v>962</v>
+        <v>472</v>
       </c>
       <c r="K456" s="0"/>
       <c r="L456" t="s" s="0">
-        <v>1012</v>
+        <v>214</v>
       </c>
       <c r="M456" s="0"/>
     </row>
@@ -20067,35 +20403,35 @@
         <v>456.0</v>
       </c>
       <c r="B457" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C457" t="s" s="0">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="D457" t="s" s="0">
-        <v>267</v>
+        <v>608</v>
       </c>
       <c r="E457" t="s" s="0">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="F457" t="s" s="0">
-        <v>169</v>
+        <v>392</v>
       </c>
       <c r="G457" t="s" s="0">
-        <v>16</v>
+        <v>475</v>
       </c>
       <c r="H457" t="s" s="0">
-        <v>1013</v>
+        <v>476</v>
       </c>
       <c r="I457" t="s" s="0">
-        <v>1014</v>
+        <v>477</v>
       </c>
       <c r="J457" t="s" s="0">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="K457" s="0"/>
       <c r="L457" t="s" s="0">
-        <v>1015</v>
+        <v>430</v>
       </c>
       <c r="M457" s="0"/>
     </row>
@@ -20104,35 +20440,35 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C458" t="s" s="0">
-        <v>12</v>
+        <v>479</v>
       </c>
       <c r="D458" t="s" s="0">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="E458" t="s" s="0">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F458" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G458" t="s" s="0">
-        <v>16</v>
+        <v>547</v>
       </c>
       <c r="H458" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I458" t="s" s="0">
-        <v>729</v>
+        <v>1031</v>
       </c>
       <c r="J458" t="s" s="0">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="K458" s="0"/>
       <c r="L458" t="s" s="0">
-        <v>1017</v>
+        <v>37</v>
       </c>
       <c r="M458" s="0"/>
     </row>
@@ -20141,35 +20477,35 @@
         <v>458.0</v>
       </c>
       <c r="B459" t="s" s="0">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="C459" t="s" s="0">
-        <v>21</v>
+        <v>394</v>
       </c>
       <c r="D459" t="s" s="0">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="E459" t="s" s="0">
-        <v>23</v>
+        <v>485</v>
       </c>
       <c r="F459" t="s" s="0">
-        <v>24</v>
+        <v>486</v>
       </c>
       <c r="G459" t="s" s="0">
-        <v>25</v>
+        <v>551</v>
       </c>
       <c r="H459" t="s" s="0">
-        <v>26</v>
+        <v>488</v>
       </c>
       <c r="I459" t="s" s="0">
-        <v>697</v>
+        <v>1033</v>
       </c>
       <c r="J459" t="s" s="0">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="K459" s="0"/>
       <c r="L459" t="s" s="0">
-        <v>1019</v>
+        <v>1035</v>
       </c>
       <c r="M459" s="0"/>
     </row>
@@ -20178,35 +20514,35 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C460" t="s" s="0">
-        <v>30</v>
+        <v>492</v>
       </c>
       <c r="D460" t="s" s="0">
-        <v>31</v>
+        <v>493</v>
       </c>
       <c r="E460" t="s" s="0">
-        <v>32</v>
+        <v>485</v>
       </c>
       <c r="F460" t="s" s="0">
-        <v>33</v>
+        <v>486</v>
       </c>
       <c r="G460" t="s" s="0">
-        <v>16</v>
+        <v>551</v>
       </c>
       <c r="H460" t="s" s="0">
-        <v>122</v>
+        <v>488</v>
       </c>
       <c r="I460" t="s" s="0">
-        <v>1020</v>
+        <v>552</v>
       </c>
       <c r="J460" t="s" s="0">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="K460" s="0"/>
       <c r="L460" t="s" s="0">
-        <v>1022</v>
+        <v>1038</v>
       </c>
       <c r="M460" s="0"/>
     </row>
@@ -20215,35 +20551,35 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C461" t="s" s="0">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D461" t="s" s="0">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="E461" t="s" s="0">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="F461" t="s" s="0">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="G461" t="s" s="0">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H461" t="s" s="0">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I461" t="s" s="0">
-        <v>1023</v>
+        <v>254</v>
       </c>
       <c r="J461" t="s" s="0">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="K461" s="0"/>
       <c r="L461" t="s" s="0">
-        <v>842</v>
+        <v>594</v>
       </c>
       <c r="M461" s="0"/>
     </row>
@@ -20252,35 +20588,35 @@
         <v>461.0</v>
       </c>
       <c r="B462" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C462" t="s" s="0">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="D462" t="s" s="0">
-        <v>48</v>
+        <v>556</v>
       </c>
       <c r="E462" t="s" s="0">
-        <v>49</v>
+        <v>557</v>
       </c>
       <c r="F462" t="s" s="0">
-        <v>50</v>
+        <v>558</v>
       </c>
       <c r="G462" t="s" s="0">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H462" t="s" s="0">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I462" t="s" s="0">
-        <v>623</v>
+        <v>1040</v>
       </c>
       <c r="J462" t="s" s="0">
-        <v>1025</v>
+        <v>1041</v>
       </c>
       <c r="K462" s="0"/>
       <c r="L462" t="s" s="0">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="M462" s="0"/>
     </row>
@@ -20289,19 +20625,19 @@
         <v>462.0</v>
       </c>
       <c r="B463" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C463" t="s" s="0">
-        <v>1026</v>
+        <v>268</v>
       </c>
       <c r="D463" t="s" s="0">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="E463" t="s" s="0">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F463" t="s" s="0">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="G463" t="s" s="0">
         <v>16</v>
@@ -20310,14 +20646,14 @@
         <v>17</v>
       </c>
       <c r="I463" t="s" s="0">
-        <v>1027</v>
+        <v>952</v>
       </c>
       <c r="J463" t="s" s="0">
-        <v>1028</v>
+        <v>266</v>
       </c>
       <c r="K463" s="0"/>
       <c r="L463" t="s" s="0">
-        <v>1000</v>
+        <v>328</v>
       </c>
       <c r="M463" s="0"/>
     </row>
@@ -20326,19 +20662,19 @@
         <v>463.0</v>
       </c>
       <c r="B464" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C464" t="s" s="0">
-        <v>1029</v>
+        <v>405</v>
       </c>
       <c r="D464" t="s" s="0">
-        <v>1030</v>
+        <v>167</v>
       </c>
       <c r="E464" t="s" s="0">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F464" t="s" s="0">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G464" t="s" s="0">
         <v>64</v>
@@ -20347,14 +20683,14 @@
         <v>65</v>
       </c>
       <c r="I464" t="s" s="0">
-        <v>817</v>
+        <v>91</v>
       </c>
       <c r="J464" t="s" s="0">
-        <v>1031</v>
+        <v>561</v>
       </c>
       <c r="K464" s="0"/>
       <c r="L464" t="s" s="0">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="M464" s="0"/>
     </row>
@@ -20363,35 +20699,35 @@
         <v>464.0</v>
       </c>
       <c r="B465" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C465" t="s" s="0">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="D465" t="s" s="0">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="E465" t="s" s="0">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F465" t="s" s="0">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="G465" t="s" s="0">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="H465" t="s" s="0">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I465" t="s" s="0">
-        <v>75</v>
+        <v>1005</v>
       </c>
       <c r="J465" t="s" s="0">
-        <v>1032</v>
+        <v>777</v>
       </c>
       <c r="K465" s="0"/>
       <c r="L465" t="s" s="0">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="M465" s="0"/>
     </row>
@@ -20400,35 +20736,35 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C466" t="s" s="0">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D466" t="s" s="0">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="E466" t="s" s="0">
-        <v>1033</v>
+        <v>275</v>
       </c>
       <c r="F466" t="s" s="0">
-        <v>1034</v>
+        <v>276</v>
       </c>
       <c r="G466" t="s" s="0">
-        <v>577</v>
+        <v>16</v>
       </c>
       <c r="H466" t="s" s="0">
-        <v>599</v>
+        <v>17</v>
       </c>
       <c r="I466" t="s" s="0">
-        <v>1035</v>
+        <v>159</v>
       </c>
       <c r="J466" t="s" s="0">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="K466" s="0"/>
       <c r="L466" t="s" s="0">
-        <v>29</v>
+        <v>710</v>
       </c>
       <c r="M466" s="0"/>
     </row>
@@ -20437,19 +20773,19 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C467" t="s" s="0">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="D467" t="s" s="0">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="E467" t="s" s="0">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="F467" t="s" s="0">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="G467" t="s" s="0">
         <v>64</v>
@@ -20458,14 +20794,14 @@
         <v>65</v>
       </c>
       <c r="I467" t="s" s="0">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="J467" t="s" s="0">
-        <v>1037</v>
+        <v>504</v>
       </c>
       <c r="K467" s="0"/>
       <c r="L467" t="s" s="0">
-        <v>1038</v>
+        <v>37</v>
       </c>
       <c r="M467" s="0"/>
     </row>
@@ -20474,35 +20810,35 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C468" t="s" s="0">
-        <v>100</v>
+        <v>566</v>
       </c>
       <c r="D468" t="s" s="0">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="E468" t="s" s="0">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F468" t="s" s="0">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="G468" t="s" s="0">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="H468" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I468" t="s" s="0">
-        <v>1039</v>
+        <v>901</v>
       </c>
       <c r="J468" t="s" s="0">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="K468" s="0"/>
       <c r="L468" t="s" s="0">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="M468" s="0"/>
     </row>
@@ -20511,35 +20847,35 @@
         <v>468.0</v>
       </c>
       <c r="B469" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C469" t="s" s="0">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D469" t="s" s="0">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="E469" t="s" s="0">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F469" t="s" s="0">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="G469" t="s" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H469" t="s" s="0">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I469" t="s" s="0">
-        <v>91</v>
+        <v>997</v>
       </c>
       <c r="J469" t="s" s="0">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="K469" s="0"/>
       <c r="L469" t="s" s="0">
-        <v>440</v>
+        <v>136</v>
       </c>
       <c r="M469" s="0"/>
     </row>
@@ -20548,35 +20884,35 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C470" t="s" s="0">
-        <v>432</v>
+        <v>569</v>
       </c>
       <c r="D470" t="s" s="0">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="E470" t="s" s="0">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="F470" t="s" s="0">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="G470" t="s" s="0">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="H470" t="s" s="0">
-        <v>1013</v>
+        <v>311</v>
       </c>
       <c r="I470" t="s" s="0">
-        <v>1014</v>
+        <v>312</v>
       </c>
       <c r="J470" t="s" s="0">
-        <v>432</v>
+        <v>1046</v>
       </c>
       <c r="K470" s="0"/>
       <c r="L470" t="s" s="0">
-        <v>478</v>
+        <v>37</v>
       </c>
       <c r="M470" s="0"/>
     </row>
@@ -20585,35 +20921,35 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C471" t="s" s="0">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D471" t="s" s="0">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E471" t="s" s="0">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="F471" t="s" s="0">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="G471" t="s" s="0">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="H471" t="s" s="0">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="I471" t="s" s="0">
-        <v>1020</v>
+        <v>497</v>
       </c>
       <c r="J471" t="s" s="0">
-        <v>1042</v>
+        <v>874</v>
       </c>
       <c r="K471" s="0"/>
       <c r="L471" t="s" s="0">
-        <v>931</v>
+        <v>106</v>
       </c>
       <c r="M471" s="0"/>
     </row>
@@ -20622,19 +20958,19 @@
         <v>471.0</v>
       </c>
       <c r="B472" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C472" t="s" s="0">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="D472" t="s" s="0">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="E472" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F472" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G472" t="s" s="0">
         <v>64</v>
@@ -20643,14 +20979,14 @@
         <v>65</v>
       </c>
       <c r="I472" t="s" s="0">
-        <v>582</v>
+        <v>91</v>
       </c>
       <c r="J472" t="s" s="0">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="K472" s="0"/>
       <c r="L472" t="s" s="0">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="M472" s="0"/>
     </row>
@@ -20659,37 +20995,4033 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="s" s="0">
-        <v>1001</v>
+        <v>1036</v>
       </c>
       <c r="C473" t="s" s="0">
-        <v>155</v>
+        <v>432</v>
       </c>
       <c r="D473" t="s" s="0">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="E473" t="s" s="0">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="F473" t="s" s="0">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="G473" t="s" s="0">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H473" t="s" s="0">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I473" t="s" s="0">
-        <v>863</v>
+        <v>564</v>
       </c>
       <c r="J473" t="s" s="0">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="K473" s="0"/>
       <c r="L473" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M473" s="0"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D474" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E474" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F474" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G474" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H474" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I474" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J474" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="K474" s="0"/>
+      <c r="L474" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M474" s="0"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n" s="0">
+        <v>474.0</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D475" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E475" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F475" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G475" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H475" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I475" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J475" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K475" s="0"/>
+      <c r="L475" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M475" s="0"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="n" s="0">
+        <v>475.0</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D476" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E476" t="s" s="0">
+        <v>1048</v>
+      </c>
+      <c r="F476" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="G476" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="H476" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="I476" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="J476" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="K476" s="0"/>
+      <c r="L476" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M476" s="0"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="0">
+        <v>476.0</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D477" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="E477" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F477" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G477" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H477" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I477" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J477" t="s" s="0">
+        <v>1054</v>
+      </c>
+      <c r="K477" s="0"/>
+      <c r="L477" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M477" s="0"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="0">
+        <v>477.0</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D478" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E478" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F478" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G478" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="H478" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I478" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J478" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="K478" s="0"/>
+      <c r="L478" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M478" s="0"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D479" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="E479" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="F479" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="G479" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="H479" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="I479" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="J479" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="K479" s="0"/>
+      <c r="L479" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="M479" s="0"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="0">
+        <v>479.0</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="D480" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E480" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F480" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G480" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H480" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I480" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J480" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="K480" s="0"/>
+      <c r="L480" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M480" s="0"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="0">
+        <v>480.0</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E481" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="F481" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G481" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H481" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I481" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J481" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K481" s="0"/>
+      <c r="L481" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M481" s="0"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="0">
+        <v>481.0</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E482" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F482" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G482" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H482" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I482" t="s" s="0">
+        <v>1062</v>
+      </c>
+      <c r="J482" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="K482" s="0"/>
+      <c r="L482" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M482" s="0"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="0">
+        <v>482.0</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E483" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F483" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G483" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H483" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I483" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J483" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K483" s="0"/>
+      <c r="L483" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M483" s="0"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E484" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F484" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G484" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H484" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I484" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="J484" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="K484" s="0"/>
+      <c r="L484" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M484" s="0"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E485" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F485" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G485" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H485" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I485" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="J485" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="K485" s="0"/>
+      <c r="L485" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M485" s="0"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E486" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F486" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G486" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H486" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I486" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="J486" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="K486" s="0"/>
+      <c r="L486" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="M473" s="0"/>
+      <c r="M486" s="0"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="0">
+        <v>486.0</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E487" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F487" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G487" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H487" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I487" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="J487" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="K487" s="0"/>
+      <c r="L487" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M487" s="0"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E488" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F488" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G488" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H488" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I488" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="J488" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="K488" s="0"/>
+      <c r="L488" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M488" s="0"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="E489" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F489" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G489" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="H489" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="I489" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="J489" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K489" s="0"/>
+      <c r="L489" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="M489" s="0"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="E490" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F490" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G490" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H490" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I490" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J490" t="s" s="0">
+        <v>1072</v>
+      </c>
+      <c r="K490" s="0"/>
+      <c r="L490" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M490" s="0"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E491" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F491" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G491" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H491" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I491" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J491" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="K491" s="0"/>
+      <c r="L491" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M491" s="0"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E492" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F492" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G492" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H492" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I492" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="J492" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="K492" s="0"/>
+      <c r="L492" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M492" s="0"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="0">
+        <v>492.0</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E493" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F493" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G493" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H493" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I493" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="J493" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="K493" s="0"/>
+      <c r="L493" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M493" s="0"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E494" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F494" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G494" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H494" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I494" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J494" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="K494" s="0"/>
+      <c r="L494" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M494" s="0"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="0">
+        <v>494.0</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E495" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F495" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G495" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H495" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I495" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J495" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="K495" s="0"/>
+      <c r="L495" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="M495" s="0"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E496" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F496" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G496" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H496" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I496" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J496" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="K496" s="0"/>
+      <c r="L496" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M496" s="0"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D497" t="s" s="0">
+        <v>1076</v>
+      </c>
+      <c r="E497" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F497" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G497" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H497" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I497" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J497" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="K497" s="0"/>
+      <c r="L497" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M497" s="0"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E498" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F498" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G498" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H498" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I498" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J498" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="K498" s="0"/>
+      <c r="L498" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M498" s="0"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="n" s="0">
+        <v>498.0</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="E499" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F499" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G499" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H499" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I499" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J499" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="K499" s="0"/>
+      <c r="L499" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M499" s="0"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="0">
+        <v>499.0</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="E500" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F500" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G500" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H500" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I500" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="J500" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="K500" s="0"/>
+      <c r="L500" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="M500" s="0"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E501" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F501" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G501" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H501" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I501" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J501" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K501" s="0"/>
+      <c r="L501" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M501" s="0"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E502" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F502" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G502" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="H502" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="I502" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="J502" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="K502" s="0"/>
+      <c r="L502" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M502" s="0"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="D503" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E503" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F503" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G503" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H503" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I503" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J503" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="K503" s="0"/>
+      <c r="L503" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M503" s="0"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n" s="0">
+        <v>503.0</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D504" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="E504" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="F504" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="G504" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H504" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I504" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J504" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="K504" s="0"/>
+      <c r="L504" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M504" s="0"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n" s="0">
+        <v>504.0</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D505" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="E505" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="F505" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="G505" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="H505" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I505" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="J505" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K505" s="0"/>
+      <c r="L505" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M505" s="0"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n" s="0">
+        <v>505.0</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="D506" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="E506" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="F506" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="G506" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H506" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I506" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J506" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="K506" s="0"/>
+      <c r="L506" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M506" s="0"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n" s="0">
+        <v>506.0</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D507" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E507" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="F507" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G507" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H507" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I507" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J507" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K507" s="0"/>
+      <c r="L507" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M507" s="0"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n" s="0">
+        <v>507.0</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D508" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="E508" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F508" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G508" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H508" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I508" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J508" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K508" s="0"/>
+      <c r="L508" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M508" s="0"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n" s="0">
+        <v>508.0</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D509" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E509" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F509" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G509" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H509" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I509" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J509" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="K509" s="0"/>
+      <c r="L509" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M509" s="0"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n" s="0">
+        <v>509.0</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D510" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E510" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F510" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G510" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H510" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I510" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="J510" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="K510" s="0"/>
+      <c r="L510" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M510" s="0"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n" s="0">
+        <v>510.0</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D511" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E511" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F511" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G511" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H511" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I511" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J511" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="K511" s="0"/>
+      <c r="L511" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M511" s="0"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n" s="0">
+        <v>511.0</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D512" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E512" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F512" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G512" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H512" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I512" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J512" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K512" s="0"/>
+      <c r="L512" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M512" s="0"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D513" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E513" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F513" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G513" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H513" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I513" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J513" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="K513" s="0"/>
+      <c r="L513" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="M513" s="0"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="n" s="0">
+        <v>513.0</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D514" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E514" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F514" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G514" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H514" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I514" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J514" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K514" s="0"/>
+      <c r="L514" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M514" s="0"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="D515" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="E515" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="F515" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="G515" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H515" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I515" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J515" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K515" s="0"/>
+      <c r="L515" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M515" s="0"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="n" s="0">
+        <v>515.0</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D516" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E516" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F516" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G516" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H516" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I516" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J516" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="K516" s="0"/>
+      <c r="L516" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M516" s="0"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="n" s="0">
+        <v>516.0</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D517" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E517" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F517" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G517" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H517" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I517" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J517" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="K517" s="0"/>
+      <c r="L517" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M517" s="0"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="n" s="0">
+        <v>517.0</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D518" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="E518" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F518" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G518" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H518" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I518" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J518" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="K518" s="0"/>
+      <c r="L518" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M518" s="0"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n" s="0">
+        <v>518.0</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D519" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E519" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F519" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G519" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H519" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I519" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J519" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="K519" s="0"/>
+      <c r="L519" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M519" s="0"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n" s="0">
+        <v>519.0</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="D520" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="E520" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="F520" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="G520" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H520" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I520" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J520" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="K520" s="0"/>
+      <c r="L520" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="M520" s="0"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="n" s="0">
+        <v>520.0</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D521" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="E521" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="F521" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="G521" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H521" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I521" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J521" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="K521" s="0"/>
+      <c r="L521" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M521" s="0"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n" s="0">
+        <v>521.0</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D522" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E522" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F522" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G522" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H522" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I522" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J522" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K522" s="0"/>
+      <c r="L522" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M522" s="0"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="n" s="0">
+        <v>522.0</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D523" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E523" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F523" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G523" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H523" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I523" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="J523" t="s" s="0">
+        <v>1022</v>
+      </c>
+      <c r="K523" s="0"/>
+      <c r="L523" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M523" s="0"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n" s="0">
+        <v>523.0</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="D524" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E524" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F524" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G524" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H524" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I524" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J524" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="K524" s="0"/>
+      <c r="L524" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M524" s="0"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n" s="0">
+        <v>524.0</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="D525" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="E525" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F525" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G525" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H525" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I525" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="J525" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="K525" s="0"/>
+      <c r="L525" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="M525" s="0"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v>525.0</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D526" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E526" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F526" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G526" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H526" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I526" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J526" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K526" s="0"/>
+      <c r="L526" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M526" s="0"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="n" s="0">
+        <v>526.0</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D527" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E527" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F527" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G527" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H527" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I527" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J527" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="K527" s="0"/>
+      <c r="L527" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="M527" s="0"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n" s="0">
+        <v>527.0</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D528" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E528" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="F528" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="G528" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="H528" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="I528" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="J528" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="K528" s="0"/>
+      <c r="L528" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M528" s="0"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n" s="0">
+        <v>528.0</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="E529" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F529" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G529" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H529" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I529" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J529" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K529" s="0"/>
+      <c r="L529" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="M529" s="0"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n" s="0">
+        <v>529.0</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="D530" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E530" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F530" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G530" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H530" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I530" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J530" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="K530" s="0"/>
+      <c r="L530" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M530" s="0"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n" s="0">
+        <v>530.0</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D531" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E531" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F531" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G531" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H531" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I531" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J531" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="K531" s="0"/>
+      <c r="L531" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M531" s="0"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n" s="0">
+        <v>531.0</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E532" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F532" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G532" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="H532" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="I532" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="J532" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="K532" s="0"/>
+      <c r="L532" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M532" s="0"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n" s="0">
+        <v>532.0</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="E533" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="F533" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="G533" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H533" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I533" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="J533" t="s" s="0">
+        <v>1113</v>
+      </c>
+      <c r="K533" s="0"/>
+      <c r="L533" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M533" s="0"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n" s="0">
+        <v>533.0</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E534" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F534" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G534" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H534" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I534" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J534" t="s" s="0">
+        <v>1114</v>
+      </c>
+      <c r="K534" s="0"/>
+      <c r="L534" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M534" s="0"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n" s="0">
+        <v>534.0</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E535" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="F535" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="G535" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H535" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I535" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J535" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="K535" s="0"/>
+      <c r="L535" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M535" s="0"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n" s="0">
+        <v>535.0</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E536" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F536" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G536" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H536" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I536" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J536" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="K536" s="0"/>
+      <c r="L536" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M536" s="0"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n" s="0">
+        <v>536.0</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E537" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F537" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G537" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H537" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I537" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J537" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="K537" s="0"/>
+      <c r="L537" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M537" s="0"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n" s="0">
+        <v>537.0</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E538" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F538" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G538" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H538" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I538" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="J538" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="K538" s="0"/>
+      <c r="L538" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="M538" s="0"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n" s="0">
+        <v>538.0</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E539" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="F539" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="G539" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H539" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I539" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J539" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="K539" s="0"/>
+      <c r="L539" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M539" s="0"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n" s="0">
+        <v>539.0</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E540" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F540" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G540" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H540" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I540" t="s" s="0">
+        <v>1119</v>
+      </c>
+      <c r="J540" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K540" s="0"/>
+      <c r="L540" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M540" s="0"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n" s="0">
+        <v>540.0</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>1120</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="E541" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F541" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G541" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="H541" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="I541" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="J541" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="K541" s="0"/>
+      <c r="L541" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M541" s="0"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E542" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F542" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G542" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="H542" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I542" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="J542" t="s" s="0">
+        <v>1123</v>
+      </c>
+      <c r="K542" s="0"/>
+      <c r="L542" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M542" s="0"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n" s="0">
+        <v>542.0</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E543" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F543" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G543" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="H543" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I543" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="J543" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="K543" s="0"/>
+      <c r="L543" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M543" s="0"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n" s="0">
+        <v>543.0</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="E544" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="F544" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="G544" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="H544" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I544" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="J544" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K544" s="0"/>
+      <c r="L544" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M544" s="0"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E545" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="F545" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="G545" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H545" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="I545" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="J545" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="K545" s="0"/>
+      <c r="L545" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="M545" s="0"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E546" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F546" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G546" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H546" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I546" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="J546" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="K546" s="0"/>
+      <c r="L546" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M546" s="0"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="E547" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F547" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G547" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H547" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I547" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="J547" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="K547" s="0"/>
+      <c r="L547" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M547" s="0"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n" s="0">
+        <v>547.0</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E548" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F548" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G548" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H548" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I548" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="J548" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="K548" s="0"/>
+      <c r="L548" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M548" s="0"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n" s="0">
+        <v>548.0</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="E549" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F549" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G549" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H549" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I549" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="J549" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="K549" s="0"/>
+      <c r="L549" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M549" s="0"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n" s="0">
+        <v>549.0</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="E550" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F550" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G550" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H550" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I550" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="J550" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="K550" s="0"/>
+      <c r="L550" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M550" s="0"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E551" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F551" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G551" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H551" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I551" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="J551" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="K551" s="0"/>
+      <c r="L551" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M551" s="0"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="0">
+        <v>551.0</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E552" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F552" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G552" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H552" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I552" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J552" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="K552" s="0"/>
+      <c r="L552" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="M552" s="0"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="0">
+        <v>552.0</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E553" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F553" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G553" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H553" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I553" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="J553" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="K553" s="0"/>
+      <c r="L553" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M553" s="0"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="0">
+        <v>553.0</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D554" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E554" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F554" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G554" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H554" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I554" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J554" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="K554" s="0"/>
+      <c r="L554" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M554" s="0"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D555" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E555" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F555" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G555" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H555" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I555" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J555" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="K555" s="0"/>
+      <c r="L555" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="M555" s="0"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="0">
+        <v>555.0</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D556" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E556" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F556" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G556" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H556" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I556" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J556" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="K556" s="0"/>
+      <c r="L556" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M556" s="0"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="0">
+        <v>556.0</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D557" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E557" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F557" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G557" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H557" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I557" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J557" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K557" s="0"/>
+      <c r="L557" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M557" s="0"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="0">
+        <v>557.0</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D558" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="E558" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F558" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="G558" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H558" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I558" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J558" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="K558" s="0"/>
+      <c r="L558" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="M558" s="0"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="0">
+        <v>558.0</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D559" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="E559" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F559" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G559" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H559" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I559" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J559" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="K559" s="0"/>
+      <c r="L559" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M559" s="0"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D560" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E560" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F560" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G560" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H560" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I560" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J560" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="K560" s="0"/>
+      <c r="L560" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M560" s="0"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D561" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E561" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F561" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G561" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H561" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I561" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J561" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="K561" s="0"/>
+      <c r="L561" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M561" s="0"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="n" s="0">
+        <v>561.0</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D562" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E562" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F562" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G562" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H562" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I562" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J562" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="K562" s="0"/>
+      <c r="L562" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M562" s="0"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="n" s="0">
+        <v>562.0</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D563" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E563" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F563" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G563" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H563" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I563" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="J563" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="K563" s="0"/>
+      <c r="L563" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M563" s="0"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="n" s="0">
+        <v>563.0</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="D564" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="E564" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F564" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G564" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H564" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I564" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J564" t="s" s="0">
+        <v>1140</v>
+      </c>
+      <c r="K564" s="0"/>
+      <c r="L564" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M564" s="0"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D565" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E565" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F565" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G565" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H565" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I565" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J565" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="K565" s="0"/>
+      <c r="L565" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M565" s="0"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="n" s="0">
+        <v>565.0</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="D566" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E566" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F566" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G566" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H566" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I566" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J566" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="K566" s="0"/>
+      <c r="L566" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M566" s="0"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D567" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E567" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F567" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G567" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H567" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I567" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J567" t="s" s="0">
+        <v>1143</v>
+      </c>
+      <c r="K567" s="0"/>
+      <c r="L567" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M567" s="0"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="0">
+        <v>567.0</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D568" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E568" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F568" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G568" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H568" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I568" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="J568" t="s" s="0">
+        <v>1144</v>
+      </c>
+      <c r="K568" s="0"/>
+      <c r="L568" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M568" s="0"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="0">
+        <v>568.0</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D569" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E569" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F569" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G569" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H569" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I569" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J569" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="K569" s="0"/>
+      <c r="L569" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M569" s="0"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="0">
+        <v>569.0</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D570" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E570" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F570" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G570" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H570" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I570" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="J570" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K570" s="0"/>
+      <c r="L570" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="M570" s="0"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="0">
+        <v>570.0</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D571" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E571" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F571" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G571" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H571" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I571" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J571" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="K571" s="0"/>
+      <c r="L571" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M571" s="0"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="0">
+        <v>571.0</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="D572" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E572" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="F572" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="G572" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H572" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I572" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J572" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="K572" s="0"/>
+      <c r="L572" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="M572" s="0"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="n" s="0">
+        <v>572.0</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D573" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E573" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F573" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="G573" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H573" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I573" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J573" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="K573" s="0"/>
+      <c r="L573" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M573" s="0"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="0">
+        <v>573.0</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D574" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E574" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F574" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="G574" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H574" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I574" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="J574" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="K574" s="0"/>
+      <c r="L574" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="M574" s="0"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="0">
+        <v>574.0</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D575" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E575" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F575" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="G575" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H575" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I575" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J575" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="K575" s="0"/>
+      <c r="L575" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M575" s="0"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D576" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="E576" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F576" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G576" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H576" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I576" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J576" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="K576" s="0"/>
+      <c r="L576" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="M576" s="0"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D577" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E577" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F577" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G577" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H577" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I577" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J577" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K577" s="0"/>
+      <c r="L577" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M577" s="0"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D578" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E578" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F578" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G578" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="H578" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I578" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="J578" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="K578" s="0"/>
+      <c r="L578" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M578" s="0"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E579" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F579" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G579" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H579" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I579" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J579" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="K579" s="0"/>
+      <c r="L579" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="M579" s="0"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="n" s="0">
+        <v>579.0</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="E580" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F580" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="G580" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H580" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I580" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J580" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="K580" s="0"/>
+      <c r="L580" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M580" s="0"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E581" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F581" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G581" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H581" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I581" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J581" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="K581" s="0"/>
+      <c r="L581" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="M581" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/KTW_Departures.xlsx
+++ b/DataBase/KTW_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6360" uniqueCount="1209">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3480,6 +3480,165 @@
   </si>
   <si>
     <t>4:04 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>9:04 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 39 minutes</t>
+  </si>
+  <si>
+    <t>8:14 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>E44711</t>
+  </si>
+  <si>
+    <t>8:57 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 57 minutes</t>
+  </si>
+  <si>
+    <t>7:38 AM</t>
+  </si>
+  <si>
+    <t>8:09 AM</t>
+  </si>
+  <si>
+    <t>(9H-QAP)</t>
+  </si>
+  <si>
+    <t>9:28 AM</t>
+  </si>
+  <si>
+    <t>10:19 AM</t>
+  </si>
+  <si>
+    <t>(EI-HGV)</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>11:22 AM</t>
+  </si>
+  <si>
+    <t>11:49 AM</t>
+  </si>
+  <si>
+    <t>11:44 AM</t>
+  </si>
+  <si>
+    <t>12:42 PM</t>
+  </si>
+  <si>
+    <t>12:56 PM</t>
+  </si>
+  <si>
+    <t>(EI-DPK)</t>
+  </si>
+  <si>
+    <t>2:45 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>5:33 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHF)</t>
+  </si>
+  <si>
+    <t>5:28 PM</t>
+  </si>
+  <si>
+    <t>5:58 PM</t>
+  </si>
+  <si>
+    <t>6:23 PM</t>
+  </si>
+  <si>
+    <t>7:16 PM</t>
+  </si>
+  <si>
+    <t>8:28 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBD)</t>
+  </si>
+  <si>
+    <t>10:44 PM</t>
+  </si>
+  <si>
+    <t>(OE-IBW)</t>
+  </si>
+  <si>
+    <t>11:39 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>5:05 AM</t>
+  </si>
+  <si>
+    <t>(HA-LXA)</t>
+  </si>
+  <si>
+    <t>6:57 AM</t>
+  </si>
+  <si>
+    <t>7:24 AM</t>
+  </si>
+  <si>
+    <t>AY8922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnair </t>
+  </si>
+  <si>
+    <t>(OH-LKP)</t>
+  </si>
+  <si>
+    <t>4:29 PM</t>
+  </si>
+  <si>
+    <t>4 hours, 29 minutes</t>
+  </si>
+  <si>
+    <t>1:36 PM</t>
+  </si>
+  <si>
+    <t>3:23 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LND)</t>
+  </si>
+  <si>
+    <t>4:06 PM</t>
+  </si>
+  <si>
+    <t>4:22 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 57 minutes</t>
+  </si>
+  <si>
+    <t>5:16 PM</t>
+  </si>
+  <si>
+    <t>5:02 PM</t>
   </si>
 </sst>
 </file>
@@ -3524,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M581"/>
+  <dimension ref="A1:M636"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -25023,6 +25182,2041 @@
       </c>
       <c r="M581" s="0"/>
     </row>
+    <row r="582">
+      <c r="A582" t="n" s="0">
+        <v>581.0</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="E582" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F582" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G582" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H582" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I582" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J582" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="K582" s="0"/>
+      <c r="L582" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M582" s="0"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E583" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F583" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G583" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H583" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I583" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J583" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K583" s="0"/>
+      <c r="L583" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M583" s="0"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="E584" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="F584" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="G584" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H584" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I584" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J584" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="K584" s="0"/>
+      <c r="L584" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="M584" s="0"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="n" s="0">
+        <v>584.0</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="E585" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F585" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G585" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H585" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I585" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J585" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="K585" s="0"/>
+      <c r="L585" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="M585" s="0"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="0">
+        <v>585.0</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="E586" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F586" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G586" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H586" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I586" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J586" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="K586" s="0"/>
+      <c r="L586" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M586" s="0"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="0">
+        <v>586.0</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F587" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G587" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H587" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I587" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J587" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="K587" s="0"/>
+      <c r="L587" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="M587" s="0"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="0">
+        <v>587.0</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="F588" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="G588" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H588" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I588" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="J588" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="K588" s="0"/>
+      <c r="L588" t="s" s="0">
+        <v>1163</v>
+      </c>
+      <c r="M588" s="0"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="0">
+        <v>588.0</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F589" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G589" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H589" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I589" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J589" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="K589" s="0"/>
+      <c r="L589" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M589" s="0"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F590" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G590" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H590" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I590" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J590" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="K590" s="0"/>
+      <c r="L590" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="M590" s="0"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="0">
+        <v>590.0</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="F591" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="G591" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H591" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I591" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="J591" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="K591" s="0"/>
+      <c r="L591" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="M591" s="0"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="0">
+        <v>591.0</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F592" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G592" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H592" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I592" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="J592" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="K592" s="0"/>
+      <c r="L592" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="M592" s="0"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="0">
+        <v>592.0</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F593" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G593" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H593" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I593" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="J593" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K593" s="0"/>
+      <c r="L593" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M593" s="0"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="n" s="0">
+        <v>593.0</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="F594" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="G594" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H594" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I594" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="J594" t="s" s="0">
+        <v>1171</v>
+      </c>
+      <c r="K594" s="0"/>
+      <c r="L594" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M594" s="0"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="0">
+        <v>594.0</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F595" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G595" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H595" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I595" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J595" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K595" s="0"/>
+      <c r="L595" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M595" s="0"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="0">
+        <v>595.0</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F596" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G596" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="H596" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I596" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="J596" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="K596" s="0"/>
+      <c r="L596" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M596" s="0"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="0">
+        <v>596.0</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="F597" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="G597" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H597" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I597" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J597" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="K597" s="0"/>
+      <c r="L597" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="M597" s="0"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="0">
+        <v>597.0</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F598" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G598" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H598" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I598" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J598" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="K598" s="0"/>
+      <c r="L598" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M598" s="0"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="F599" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="G599" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H599" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I599" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J599" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="K599" s="0"/>
+      <c r="L599" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="M599" s="0"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="n" s="0">
+        <v>599.0</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="F600" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="G600" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H600" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I600" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J600" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="K600" s="0"/>
+      <c r="L600" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="M600" s="0"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="F601" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="G601" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H601" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I601" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="J601" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="K601" s="0"/>
+      <c r="L601" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="M601" s="0"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F602" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G602" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H602" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I602" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J602" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="K602" s="0"/>
+      <c r="L602" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="M602" s="0"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="F603" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="G603" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H603" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I603" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J603" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K603" s="0"/>
+      <c r="L603" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="M603" s="0"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="n" s="0">
+        <v>603.0</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F604" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G604" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H604" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="I604" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="J604" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="K604" s="0"/>
+      <c r="L604" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M604" s="0"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="n" s="0">
+        <v>604.0</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F605" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G605" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H605" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I605" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="J605" t="s" s="0">
+        <v>1179</v>
+      </c>
+      <c r="K605" s="0"/>
+      <c r="L605" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="M605" s="0"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="n" s="0">
+        <v>605.0</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="F606" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="G606" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H606" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I606" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="J606" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="K606" s="0"/>
+      <c r="L606" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M606" s="0"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F607" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G607" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H607" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I607" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J607" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="K607" s="0"/>
+      <c r="L607" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M607" s="0"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="0">
+        <v>607.0</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F608" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G608" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H608" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I608" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="J608" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K608" s="0"/>
+      <c r="L608" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="M608" s="0"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="0">
+        <v>608.0</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="F609" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="G609" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H609" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I609" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J609" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="K609" s="0"/>
+      <c r="L609" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M609" s="0"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="0">
+        <v>609.0</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F610" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G610" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H610" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I610" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="J610" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="K610" s="0"/>
+      <c r="L610" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="M610" s="0"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="F611" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G611" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="H611" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I611" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="J611" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="K611" s="0"/>
+      <c r="L611" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="M611" s="0"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="0">
+        <v>611.0</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="F612" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="G612" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H612" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I612" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="J612" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="K612" s="0"/>
+      <c r="L612" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="M612" s="0"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="F613" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="G613" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="H613" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I613" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="J613" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="K613" s="0"/>
+      <c r="L613" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="M613" s="0"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="n" s="0">
+        <v>613.0</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="F614" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="G614" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H614" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I614" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J614" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="K614" s="0"/>
+      <c r="L614" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="M614" s="0"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="0">
+        <v>614.0</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F615" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G615" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H615" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="I615" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="J615" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K615" s="0"/>
+      <c r="L615" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="M615" s="0"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="0">
+        <v>615.0</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F616" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="G616" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H616" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I616" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J616" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="K616" s="0"/>
+      <c r="L616" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M616" s="0"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="F617" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="G617" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I617" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J617" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K617" s="0"/>
+      <c r="L617" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="M617" s="0"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="0">
+        <v>617.0</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F618" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G618" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H618" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I618" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="J618" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="K618" s="0"/>
+      <c r="L618" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="M618" s="0"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="0">
+        <v>618.0</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="F619" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="G619" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H619" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I619" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J619" t="s" s="0">
+        <v>1193</v>
+      </c>
+      <c r="K619" s="0"/>
+      <c r="L619" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M619" s="0"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="0">
+        <v>619.0</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F620" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="G620" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H620" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I620" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="J620" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K620" s="0"/>
+      <c r="L620" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="M620" s="0"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="n" s="0">
+        <v>620.0</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F621" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G621" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H621" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I621" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="J621" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="K621" s="0"/>
+      <c r="L621" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="M621" s="0"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="n" s="0">
+        <v>621.0</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="F622" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G622" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H622" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I622" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J622" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="K622" s="0"/>
+      <c r="L622" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M622" s="0"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="n" s="0">
+        <v>622.0</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F623" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G623" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="H623" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I623" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="J623" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="K623" s="0"/>
+      <c r="L623" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M623" s="0"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="n" s="0">
+        <v>623.0</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F624" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G624" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H624" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I624" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J624" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K624" s="0"/>
+      <c r="L624" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M624" s="0"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="n" s="0">
+        <v>624.0</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="F625" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="G625" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="H625" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I625" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="J625" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="K625" s="0"/>
+      <c r="L625" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="M625" s="0"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="n" s="0">
+        <v>625.0</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="F626" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="G626" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H626" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I626" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="J626" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="K626" s="0"/>
+      <c r="L626" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="M626" s="0"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n" s="0">
+        <v>626.0</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F627" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G627" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="H627" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I627" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="J627" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="K627" s="0"/>
+      <c r="L627" t="s" s="0">
+        <v>1199</v>
+      </c>
+      <c r="M627" s="0"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="0">
+        <v>627.0</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F628" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G628" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H628" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I628" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="J628" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="K628" s="0"/>
+      <c r="L628" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="M628" s="0"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="0">
+        <v>628.0</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F629" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G629" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H629" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I629" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="J629" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="K629" s="0"/>
+      <c r="L629" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="M629" s="0"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F630" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G630" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="H630" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I630" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="J630" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="K630" s="0"/>
+      <c r="L630" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="M630" s="0"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="0">
+        <v>630.0</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F631" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G631" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H631" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="I631" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="J631" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="K631" s="0"/>
+      <c r="L631" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="M631" s="0"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="0">
+        <v>631.0</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="F632" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="G632" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H632" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I632" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="J632" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="K632" s="0"/>
+      <c r="L632" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="M632" s="0"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="F633" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="G633" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="H633" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="I633" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="J633" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="K633" s="0"/>
+      <c r="L633" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M633" s="0"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="0">
+        <v>633.0</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="F634" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="G634" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H634" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I634" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="J634" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="K634" s="0"/>
+      <c r="L634" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M634" s="0"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="n" s="0">
+        <v>634.0</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D635" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="F635" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="G635" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="H635" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="I635" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="J635" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="K635" s="0"/>
+      <c r="L635" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="M635" s="0"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D636" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="F636" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="G636" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="H636" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="I636" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="J636" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="K636" s="0"/>
+      <c r="L636" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="M636" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
